--- a/app/templates/report/forecast.xlsx
+++ b/app/templates/report/forecast.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A0CBB0-F114-4900-8649-9095D022CB0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CC0A77-731B-487D-BE38-A4EC28CE1E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>Resource</t>
   </si>
@@ -675,7 +675,17 @@
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -1087,12 +1097,14 @@
         <v>#VALUE!</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="5"/>
-      <c r="G1" s="6"/>
+      <c r="G1" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
@@ -1132,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
@@ -1418,6 +1430,11 @@
   </sheetData>
   <autoFilter ref="A4:B4" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="9" type="noConversion"/>
+  <conditionalFormatting sqref="A5:AG99999">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$B5&lt;&gt;$B4</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <ignoredErrors>

--- a/app/templates/report/forecast.xlsx
+++ b/app/templates/report/forecast.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CC0A77-731B-487D-BE38-A4EC28CE1E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD910251-F75B-44DA-AE90-6A7C8E6C893B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
   <si>
     <t>Resource</t>
   </si>
@@ -168,19 +168,31 @@
   </si>
   <si>
     <t>date</t>
+  </si>
+  <si>
+    <t>Mgmt Fee</t>
+  </si>
+  <si>
+    <t>%
+Mgmt Fee</t>
+  </si>
+  <si>
+    <t>Mgmt
+Fee</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="164" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
     <numFmt numFmtId="165" formatCode="#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="#,##0\ _€"/>
     <numFmt numFmtId="168" formatCode="mm/yyyy"/>
+    <numFmt numFmtId="169" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -523,7 +535,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="6" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -630,12 +642,6 @@
     <xf numFmtId="6" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="3" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -668,6 +674,15 @@
     <xf numFmtId="6" fontId="3" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="3" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -675,7 +690,25 @@
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <top style="thin">
@@ -1068,7 +1101,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG5"/>
+  <dimension ref="A1:AM5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1076,19 +1109,22 @@
   <cols>
     <col min="1" max="1" width="9.85546875" style="27" customWidth="1"/>
     <col min="2" max="2" width="14.140625" style="1" customWidth="1"/>
-    <col min="3" max="6" width="6.5703125" style="1" customWidth="1"/>
-    <col min="7" max="9" width="8.140625" style="1" customWidth="1"/>
-    <col min="10" max="13" width="9.140625" style="1" customWidth="1"/>
-    <col min="14" max="21" width="8.85546875" style="1" customWidth="1"/>
-    <col min="22" max="26" width="11.42578125" style="1" customWidth="1"/>
-    <col min="27" max="28" width="8.5703125" style="1" customWidth="1"/>
-    <col min="29" max="30" width="12.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
+    <col min="4" max="7" width="6.5703125" style="1" customWidth="1"/>
+    <col min="8" max="10" width="8.140625" style="1" customWidth="1"/>
+    <col min="11" max="14" width="9.140625" style="1" customWidth="1"/>
+    <col min="15" max="22" width="8.85546875" style="1" customWidth="1"/>
+    <col min="23" max="28" width="11.42578125" style="1" customWidth="1"/>
+    <col min="29" max="30" width="8.85546875" style="1" customWidth="1"/>
     <col min="31" max="32" width="8.5703125" style="1" customWidth="1"/>
-    <col min="33" max="33" width="12.7109375" style="1" customWidth="1"/>
-    <col min="34" max="16384" width="14.42578125" style="1"/>
+    <col min="33" max="34" width="12.7109375" style="1" customWidth="1"/>
+    <col min="35" max="36" width="8.85546875" style="1" customWidth="1"/>
+    <col min="37" max="38" width="8.5703125" style="1" customWidth="1"/>
+    <col min="39" max="39" width="12.7109375" style="1" customWidth="1"/>
+    <col min="40" max="16384" width="14.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>17</v>
       </c>
@@ -1096,16 +1132,16 @@
         <f>YEAR(A5)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="6"/>
       <c r="E1" s="6"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="6"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="6"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -1119,24 +1155,30 @@
       <c r="S1" s="6"/>
       <c r="T1" s="6"/>
       <c r="U1" s="6"/>
-      <c r="V1" s="23"/>
+      <c r="V1" s="6"/>
       <c r="W1" s="23"/>
       <c r="X1" s="23"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="4" t="s">
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="4" t="s">
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="6"/>
+      <c r="AG1" s="6"/>
+      <c r="AH1" s="7"/>
+      <c r="AI1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="AF1" s="6"/>
-      <c r="AG1" s="7"/>
+      <c r="AJ1" s="6"/>
+      <c r="AK1" s="4"/>
+      <c r="AL1" s="6"/>
+      <c r="AM1" s="7"/>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>30</v>
       </c>
@@ -1144,293 +1186,346 @@
         <v>0</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="9"/>
+      <c r="H2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="8" t="s">
+      <c r="I2" s="9"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="9"/>
       <c r="L2" s="9"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="8"/>
       <c r="P2" s="9"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="8" t="s">
+      <c r="Q2" s="9"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="9"/>
       <c r="T2" s="9"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="24" t="s">
+      <c r="U2" s="9"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="W2" s="24"/>
       <c r="X2" s="24"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="9"/>
       <c r="AB2" s="9"/>
-      <c r="AC2" s="9"/>
+      <c r="AC2" s="8"/>
       <c r="AD2" s="10"/>
       <c r="AE2" s="8" t="s">
         <v>19</v>
       </c>
       <c r="AF2" s="9"/>
-      <c r="AG2" s="10"/>
+      <c r="AG2" s="9"/>
+      <c r="AH2" s="10"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="10"/>
+      <c r="AK2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL2" s="9"/>
+      <c r="AM2" s="10"/>
     </row>
-    <row r="3" spans="1:33" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32"/>
       <c r="B3" s="33"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="35"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="34"/>
       <c r="E3" s="35"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="41"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="40"/>
       <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="44"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="43"/>
       <c r="P3" s="44"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="46">
+      <c r="Q3" s="44"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="46">
         <v>0.28999999999999998</v>
-      </c>
-      <c r="S3" s="47">
-        <v>0.05</v>
       </c>
       <c r="T3" s="47">
         <v>0.05</v>
       </c>
-      <c r="U3" s="48">
+      <c r="U3" s="47">
+        <v>0.05</v>
+      </c>
+      <c r="V3" s="48">
         <v>0.1</v>
       </c>
-      <c r="V3" s="69">
-        <f>SUM(V5:V1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="W3" s="69">
-        <f t="shared" ref="W3:Z3" si="0">SUM(W5:W1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="X3" s="69">
+      <c r="W3" s="67">
+        <f>SUM(W5:W1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="X3" s="67">
+        <f t="shared" ref="X3:AB3" si="0">SUM(X5:X1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="67">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y3" s="72">
+      <c r="Z3" s="70">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z3" s="73">
+      <c r="AA3" s="71">
+        <f t="shared" ref="AA3" si="1">SUM(AA5:AA1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="AB3" s="71">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA3" s="49"/>
-      <c r="AB3" s="50"/>
-      <c r="AC3" s="70">
-        <f t="shared" ref="AC3" si="1">SUM(AC5:AC1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="AD3" s="70">
-        <f>SUM(AD5:AD1048576)</f>
-        <v>0</v>
-      </c>
+      <c r="AC3" s="43"/>
+      <c r="AD3" s="45"/>
       <c r="AE3" s="49"/>
       <c r="AF3" s="50"/>
-      <c r="AG3" s="71">
-        <f>SUM(AG5:AG1048576)</f>
+      <c r="AG3" s="68">
+        <f t="shared" ref="AG3" si="2">SUM(AG5:AG1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="AH3" s="68">
+        <f>SUM(AH5:AH1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="AI3" s="43"/>
+      <c r="AJ3" s="45"/>
+      <c r="AK3" s="49"/>
+      <c r="AL3" s="50"/>
+      <c r="AM3" s="69">
+        <f>SUM(AM5:AM1048576)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" s="19" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="56" t="s">
+    <row r="4" spans="1:39" s="19" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="58" t="s">
+      <c r="B4" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="E4" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="F4" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="G4" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="61" t="s">
+      <c r="H4" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="59" t="s">
+      <c r="I4" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="62" t="s">
+      <c r="J4" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="58" t="s">
+      <c r="K4" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="63" t="s">
+      <c r="L4" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="63" t="s">
+      <c r="M4" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="64" t="s">
+      <c r="N4" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="61" t="s">
+      <c r="O4" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="60" t="s">
+      <c r="P4" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="P4" s="60" t="s">
+      <c r="Q4" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" s="62" t="s">
+      <c r="R4" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="R4" s="61" t="s">
+      <c r="S4" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="S4" s="60" t="s">
+      <c r="T4" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="T4" s="60" t="s">
+      <c r="U4" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="U4" s="64" t="s">
+      <c r="V4" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="V4" s="65" t="s">
+      <c r="W4" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="W4" s="59" t="s">
+      <c r="X4" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="X4" s="59" t="s">
+      <c r="Y4" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="Y4" s="62" t="s">
+      <c r="Z4" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="Z4" s="59" t="s">
+      <c r="AA4" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="AA4" s="61" t="s">
+      <c r="AB4" s="76" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC4" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD4" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE4" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="AB4" s="60" t="s">
+      <c r="AF4" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="AC4" s="59" t="s">
+      <c r="AG4" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="AD4" s="59" t="s">
+      <c r="AH4" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="AE4" s="61" t="s">
+      <c r="AI4" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ4" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK4" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="AF4" s="60" t="s">
+      <c r="AL4" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="AG4" s="62" t="s">
+      <c r="AM4" s="60" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>37</v>
       </c>
       <c r="B5" s="30"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="3">
-        <f>ROUND(G5*D5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="12">
-        <f>IF(C5&lt;&gt;0,H5/C5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="52"/>
-      <c r="K5" s="53"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="3">
+        <f>H5*E5</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="12">
+        <f>IF(D5&lt;&gt;0,I5/D5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="52"/>
       <c r="L5" s="53"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="15"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="14"/>
       <c r="P5" s="15"/>
-      <c r="Q5" s="28">
-        <f>1-SUM(N5:P5)</f>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="28">
+        <f>1-SUM(O5:Q5)</f>
         <v>1</v>
       </c>
-      <c r="R5" s="16"/>
-      <c r="S5" s="17"/>
+      <c r="S5" s="16"/>
       <c r="T5" s="17"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="66">
-        <f>(1-SUMPRODUCT($R$3:$U$3,$R5:$U5))*J5*$H5*N5</f>
-        <v>0</v>
-      </c>
-      <c r="W5" s="66">
-        <f>(1-SUMPRODUCT($R$3:$U$3,$R5:$U5))*K5*$H5*O5</f>
-        <v>0</v>
-      </c>
-      <c r="X5" s="66">
-        <f>(1-SUMPRODUCT($R$3:$U$3,$R5:$U5))*L5*$H5*P5</f>
-        <v>0</v>
-      </c>
-      <c r="Y5" s="67">
-        <f>(1-SUMPRODUCT($R$3:$U$3,$R5:$U5))*M5*$H5*Q5</f>
-        <v>0</v>
-      </c>
-      <c r="Z5" s="68">
+      <c r="U5" s="17"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="64">
+        <f>(1-SUMPRODUCT($S$3:$V$3,$S5:$V5))*K5*$I5*O5</f>
+        <v>0</v>
+      </c>
+      <c r="X5" s="64">
+        <f>(1-SUMPRODUCT($S$3:$V$3,$S5:$V5))*L5*$I5*P5</f>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="64">
+        <f>(1-SUMPRODUCT($S$3:$V$3,$S5:$V5))*M5*$I5*Q5</f>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="65">
+        <f>(1-SUMPRODUCT($S$3:$V$3,$S5:$V5))*N5*$I5*R5</f>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="66">
         <f>SUM(V5:Y5)</f>
         <v>0</v>
       </c>
-      <c r="AA5" s="55"/>
-      <c r="AB5" s="15"/>
-      <c r="AC5" s="2">
-        <f t="shared" ref="AC5" si="2">AA5*C5</f>
-        <v>0</v>
-      </c>
-      <c r="AD5" s="2">
-        <f t="shared" ref="AD5" si="3">AA5*C5*AB5</f>
-        <v>0</v>
+      <c r="AB5" s="66">
+        <f>AA5*C5</f>
+        <v>0</v>
+      </c>
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="28">
+        <f>1-AC5</f>
+        <v>1</v>
       </c>
       <c r="AE5" s="55"/>
       <c r="AF5" s="15"/>
-      <c r="AG5" s="22">
-        <f t="shared" ref="AG5" si="4">AE5*AF5*F5</f>
+      <c r="AG5" s="2">
+        <f>AE5*D5</f>
+        <v>0</v>
+      </c>
+      <c r="AH5" s="2">
+        <f t="shared" ref="AH5" si="3">AE5*D5*AF5</f>
+        <v>0</v>
+      </c>
+      <c r="AI5" s="14"/>
+      <c r="AJ5" s="28">
+        <f>1-AI5</f>
+        <v>1</v>
+      </c>
+      <c r="AK5" s="55"/>
+      <c r="AL5" s="15">
+        <f>AF5</f>
+        <v>0</v>
+      </c>
+      <c r="AM5" s="22">
+        <f>AK5*AL5*G5</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A4:B4" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="A5:AG99999">
+  <conditionalFormatting sqref="A5:AM99999">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$B5&lt;&gt;$B4</formula>
     </cfRule>
@@ -1438,7 +1533,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <ignoredErrors>
-    <ignoredError sqref="Q5" formulaRange="1"/>
+    <ignoredError sqref="R5" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/app/templates/report/forecast.xlsx
+++ b/app/templates/report/forecast.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD910251-F75B-44DA-AE90-6A7C8E6C893B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A675AA20-1F67-4F96-B084-178A1092B380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,8 +35,74 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Alejandro André</author>
+  </authors>
+  <commentList>
+    <comment ref="AF4" authorId="0" shapeId="0" xr:uid="{B2581846-D8A2-4C03-8457-1A98928CC2EA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Uso?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG4" authorId="0" shapeId="0" xr:uid="{5B577F40-A2C0-42F9-998E-20F24DC34915}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Uso?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL4" authorId="0" shapeId="0" xr:uid="{AA207973-26C0-4094-9E14-2574B36FF787}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Uso?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AM4" authorId="0" shapeId="0" xr:uid="{3AA57F77-EC3A-4DA6-BA74-50904DD1F602}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Uso?</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
   <si>
     <t>Resource</t>
   </si>
@@ -179,6 +245,18 @@
   <si>
     <t>Mgmt
 Fee</t>
+  </si>
+  <si>
+    <t>KPIs</t>
+  </si>
+  <si>
+    <t>Revpob</t>
+  </si>
+  <si>
+    <t>Revpab</t>
+  </si>
+  <si>
+    <t>MPR per bed</t>
   </si>
 </sst>
 </file>
@@ -194,7 +272,7 @@
     <numFmt numFmtId="168" formatCode="mm/yyyy"/>
     <numFmt numFmtId="169" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -250,6 +328,13 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -315,7 +400,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -528,6 +613,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -535,10 +640,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -574,7 +678,6 @@
     </xf>
     <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="6" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
@@ -636,7 +739,6 @@
     <xf numFmtId="10" fontId="3" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="6" fontId="2" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -667,11 +769,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -682,6 +780,19 @@
     <xf numFmtId="169" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -690,25 +801,7 @@
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <border>
         <top style="thin">
@@ -802,6 +895,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1100,432 +1197,468 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AP5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="27" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" style="25" customWidth="1"/>
     <col min="2" max="2" width="14.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
     <col min="4" max="7" width="6.5703125" style="1" customWidth="1"/>
     <col min="8" max="10" width="8.140625" style="1" customWidth="1"/>
     <col min="11" max="14" width="9.140625" style="1" customWidth="1"/>
     <col min="15" max="22" width="8.85546875" style="1" customWidth="1"/>
-    <col min="23" max="28" width="11.42578125" style="1" customWidth="1"/>
-    <col min="29" max="30" width="8.85546875" style="1" customWidth="1"/>
-    <col min="31" max="32" width="8.5703125" style="1" customWidth="1"/>
-    <col min="33" max="34" width="12.7109375" style="1" customWidth="1"/>
-    <col min="35" max="36" width="8.85546875" style="1" customWidth="1"/>
-    <col min="37" max="38" width="8.5703125" style="1" customWidth="1"/>
-    <col min="39" max="39" width="12.7109375" style="1" customWidth="1"/>
-    <col min="40" max="16384" width="14.42578125" style="1"/>
+    <col min="23" max="31" width="11.42578125" style="1" customWidth="1"/>
+    <col min="32" max="33" width="8.85546875" style="1" customWidth="1"/>
+    <col min="34" max="35" width="8.5703125" style="1" customWidth="1"/>
+    <col min="36" max="37" width="12.7109375" style="1" customWidth="1"/>
+    <col min="38" max="39" width="8.85546875" style="1" customWidth="1"/>
+    <col min="40" max="41" width="8.5703125" style="1" customWidth="1"/>
+    <col min="42" max="42" width="12.7109375" style="1" customWidth="1"/>
+    <col min="43" max="16384" width="14.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:42" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="11" t="e">
+      <c r="B1" s="10" t="e">
         <f>YEAR(A5)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="4" t="s">
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="4" t="s">
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="6"/>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="7"/>
-      <c r="AI1" s="4" t="s">
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5"/>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AJ1" s="6"/>
-      <c r="AK1" s="4"/>
-      <c r="AL1" s="6"/>
-      <c r="AM1" s="7"/>
+      <c r="AM1" s="5"/>
+      <c r="AN1" s="5"/>
+      <c r="AO1" s="5"/>
+      <c r="AP1" s="6"/>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="8" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="8" t="s">
+      <c r="I2" s="8"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="8" t="s">
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="24" t="s">
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="10"/>
-      <c r="AE2" s="8" t="s">
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="80" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AF2" s="9"/>
-      <c r="AG2" s="9"/>
-      <c r="AH2" s="10"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="AI2" s="8"/>
-      <c r="AJ2" s="10"/>
-      <c r="AK2" s="8" t="s">
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="9"/>
+      <c r="AL2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AL2" s="9"/>
-      <c r="AM2" s="10"/>
+      <c r="AM2" s="8"/>
+      <c r="AN2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO2" s="8"/>
+      <c r="AP2" s="9"/>
     </row>
-    <row r="3" spans="1:39" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="46">
+    <row r="3" spans="1:42" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="30"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="44">
         <v>0.28999999999999998</v>
       </c>
-      <c r="T3" s="47">
+      <c r="T3" s="45">
         <v>0.05</v>
       </c>
-      <c r="U3" s="47">
+      <c r="U3" s="45">
         <v>0.05</v>
       </c>
-      <c r="V3" s="48">
+      <c r="V3" s="46">
         <v>0.1</v>
       </c>
-      <c r="W3" s="67">
+      <c r="W3" s="62">
         <f>SUM(W5:W1048576)</f>
         <v>0</v>
       </c>
-      <c r="X3" s="67">
+      <c r="X3" s="62">
         <f t="shared" ref="X3:AB3" si="0">SUM(X5:X1048576)</f>
         <v>0</v>
       </c>
-      <c r="Y3" s="67">
+      <c r="Y3" s="62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z3" s="70">
+      <c r="Z3" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA3" s="71">
+      <c r="AA3" s="77">
         <f t="shared" ref="AA3" si="1">SUM(AA5:AA1048576)</f>
         <v>0</v>
       </c>
-      <c r="AB3" s="71">
+      <c r="AB3" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="45"/>
-      <c r="AE3" s="49"/>
-      <c r="AF3" s="50"/>
-      <c r="AG3" s="68">
-        <f t="shared" ref="AG3" si="2">SUM(AG5:AG1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="AH3" s="68">
-        <f>SUM(AH5:AH1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="AI3" s="43"/>
-      <c r="AJ3" s="45"/>
-      <c r="AK3" s="49"/>
-      <c r="AL3" s="50"/>
-      <c r="AM3" s="69">
-        <f>SUM(AM5:AM1048576)</f>
+      <c r="AC3" s="62"/>
+      <c r="AD3" s="62"/>
+      <c r="AE3" s="62"/>
+      <c r="AF3" s="41"/>
+      <c r="AG3" s="43"/>
+      <c r="AH3" s="47"/>
+      <c r="AI3" s="70"/>
+      <c r="AJ3" s="72">
+        <f t="shared" ref="AJ3" si="2">SUM(AJ5:AJ1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="AK3" s="74">
+        <f>SUM(AK5:AK1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="AL3" s="41"/>
+      <c r="AM3" s="43"/>
+      <c r="AN3" s="47"/>
+      <c r="AO3" s="70"/>
+      <c r="AP3" s="74">
+        <f>SUM(AP5:AP1048576)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:39" s="19" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="73" t="s">
+    <row r="4" spans="1:42" s="18" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="61" t="s">
+      <c r="B4" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="61" t="s">
+      <c r="E4" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="58" t="s">
+      <c r="F4" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="58" t="s">
+      <c r="G4" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="59" t="s">
+      <c r="H4" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="57" t="s">
+      <c r="I4" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="60" t="s">
+      <c r="J4" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="56" t="s">
+      <c r="K4" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="61" t="s">
+      <c r="L4" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="61" t="s">
+      <c r="M4" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="62" t="s">
+      <c r="N4" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="59" t="s">
+      <c r="O4" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="P4" s="58" t="s">
+      <c r="P4" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="Q4" s="58" t="s">
+      <c r="Q4" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="R4" s="60" t="s">
+      <c r="R4" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="S4" s="59" t="s">
+      <c r="S4" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="T4" s="58" t="s">
+      <c r="T4" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="U4" s="58" t="s">
+      <c r="U4" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="V4" s="62" t="s">
+      <c r="V4" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="W4" s="63" t="s">
+      <c r="W4" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="X4" s="57" t="s">
+      <c r="X4" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="Y4" s="57" t="s">
+      <c r="Y4" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="Z4" s="60" t="s">
+      <c r="Z4" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="AA4" s="57" t="s">
+      <c r="AA4" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="AB4" s="76" t="s">
+      <c r="AB4" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="AC4" s="59" t="s">
+      <c r="AC4" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD4" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE4" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF4" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="AD4" s="60" t="s">
+      <c r="AG4" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="AE4" s="59" t="s">
+      <c r="AH4" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="AF4" s="58" t="s">
+      <c r="AI4" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="AG4" s="57" t="s">
+      <c r="AJ4" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="AH4" s="57" t="s">
+      <c r="AK4" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="AI4" s="59" t="s">
+      <c r="AL4" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="AJ4" s="60" t="s">
+      <c r="AM4" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="AK4" s="59" t="s">
+      <c r="AN4" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="AL4" s="58" t="s">
+      <c r="AO4" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="AM4" s="60" t="s">
+      <c r="AP4" s="69" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="3">
+      <c r="B5" s="28"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="2">
         <f>H5*E5</f>
         <v>0</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="11">
         <f>IF(D5&lt;&gt;0,I5/D5,0)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="52"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="28">
+      <c r="K5" s="49"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="26">
         <f>1-SUM(O5:Q5)</f>
         <v>1</v>
       </c>
-      <c r="S5" s="16"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="64">
+      <c r="S5" s="15"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="61">
         <f>(1-SUMPRODUCT($S$3:$V$3,$S5:$V5))*K5*$I5*O5</f>
         <v>0</v>
       </c>
-      <c r="X5" s="64">
+      <c r="X5" s="61">
         <f>(1-SUMPRODUCT($S$3:$V$3,$S5:$V5))*L5*$I5*P5</f>
         <v>0</v>
       </c>
-      <c r="Y5" s="64">
+      <c r="Y5" s="61">
         <f>(1-SUMPRODUCT($S$3:$V$3,$S5:$V5))*M5*$I5*Q5</f>
         <v>0</v>
       </c>
-      <c r="Z5" s="65">
+      <c r="Z5" s="76">
         <f>(1-SUMPRODUCT($S$3:$V$3,$S5:$V5))*N5*$I5*R5</f>
         <v>0</v>
       </c>
-      <c r="AA5" s="66">
+      <c r="AA5" s="78">
         <f>SUM(V5:Y5)</f>
         <v>0</v>
       </c>
-      <c r="AB5" s="66">
+      <c r="AB5" s="79">
         <f>AA5*C5</f>
         <v>0</v>
       </c>
-      <c r="AC5" s="14"/>
-      <c r="AD5" s="28">
-        <f>1-AC5</f>
+      <c r="AC5" s="61">
+        <f>IF(I5,AA5/I5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD5" s="61">
+        <f>IF(D5,AA5/D5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE5" s="61">
+        <f>IF(D5,AJ5/D5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="26">
+        <f>1-AF5</f>
         <v>1</v>
       </c>
-      <c r="AE5" s="55"/>
-      <c r="AF5" s="15"/>
-      <c r="AG5" s="2">
-        <f>AE5*D5</f>
-        <v>0</v>
-      </c>
-      <c r="AH5" s="2">
-        <f t="shared" ref="AH5" si="3">AE5*D5*AF5</f>
-        <v>0</v>
-      </c>
-      <c r="AI5" s="14"/>
-      <c r="AJ5" s="28">
-        <f>1-AI5</f>
+      <c r="AH5" s="52"/>
+      <c r="AI5" s="71"/>
+      <c r="AJ5" s="73">
+        <f>AH5*D5</f>
+        <v>0</v>
+      </c>
+      <c r="AK5" s="75">
+        <f t="shared" ref="AK5" si="3">AH5*D5*AI5</f>
+        <v>0</v>
+      </c>
+      <c r="AL5" s="13"/>
+      <c r="AM5" s="26">
+        <f>1-AL5</f>
         <v>1</v>
       </c>
-      <c r="AK5" s="55"/>
-      <c r="AL5" s="15">
-        <f>AF5</f>
-        <v>0</v>
-      </c>
-      <c r="AM5" s="22">
-        <f>AK5*AL5*G5</f>
+      <c r="AN5" s="52"/>
+      <c r="AO5" s="71">
+        <f>AI5</f>
+        <v>0</v>
+      </c>
+      <c r="AP5" s="75">
+        <f>AN5*AO5*G5</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A4:B4" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="A5:AM99999">
+  <conditionalFormatting sqref="A5:AP99999">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$B5&lt;&gt;$B4</formula>
     </cfRule>
@@ -1535,5 +1668,6 @@
   <ignoredErrors>
     <ignoredError sqref="R5" formulaRange="1"/>
   </ignoredErrors>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/app/templates/report/forecast.xlsx
+++ b/app/templates/report/forecast.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A675AA20-1F67-4F96-B084-178A1092B380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF653CC-DC4A-46A2-B070-7E9C0B729123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,74 +35,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Alejandro André</author>
-  </authors>
-  <commentList>
-    <comment ref="AF4" authorId="0" shapeId="0" xr:uid="{B2581846-D8A2-4C03-8457-1A98928CC2EA}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Uso?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AG4" authorId="0" shapeId="0" xr:uid="{5B577F40-A2C0-42F9-998E-20F24DC34915}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Uso?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AL4" authorId="0" shapeId="0" xr:uid="{AA207973-26C0-4094-9E14-2574B36FF787}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Uso?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AM4" authorId="0" shapeId="0" xr:uid="{3AA57F77-EC3A-4DA6-BA74-50904DD1F602}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Uso?</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
   <si>
     <t>Resource</t>
   </si>
@@ -272,7 +206,7 @@
     <numFmt numFmtId="168" formatCode="mm/yyyy"/>
     <numFmt numFmtId="169" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -328,13 +262,6 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -640,7 +567,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -782,7 +709,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="6" fontId="3" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="3" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -794,6 +721,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -895,10 +823,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1197,8 +1121,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AN5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1215,13 +1139,12 @@
     <col min="32" max="33" width="8.85546875" style="1" customWidth="1"/>
     <col min="34" max="35" width="8.5703125" style="1" customWidth="1"/>
     <col min="36" max="37" width="12.7109375" style="1" customWidth="1"/>
-    <col min="38" max="39" width="8.85546875" style="1" customWidth="1"/>
-    <col min="40" max="41" width="8.5703125" style="1" customWidth="1"/>
-    <col min="42" max="42" width="12.7109375" style="1" customWidth="1"/>
-    <col min="43" max="16384" width="14.42578125" style="1"/>
+    <col min="38" max="39" width="8.5703125" style="1" customWidth="1"/>
+    <col min="40" max="40" width="12.7109375" style="1" customWidth="1"/>
+    <col min="41" max="16384" width="14.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>17</v>
       </c>
@@ -1274,11 +1197,9 @@
         <v>21</v>
       </c>
       <c r="AM1" s="5"/>
-      <c r="AN1" s="5"/>
-      <c r="AO1" s="5"/>
-      <c r="AP1" s="6"/>
+      <c r="AN1" s="6"/>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>30</v>
       </c>
@@ -1338,17 +1259,13 @@
       <c r="AI2" s="8"/>
       <c r="AJ2" s="8"/>
       <c r="AK2" s="9"/>
-      <c r="AL2" s="7" t="s">
+      <c r="AL2" s="8" t="s">
         <v>19</v>
       </c>
       <c r="AM2" s="8"/>
-      <c r="AN2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="AO2" s="8"/>
-      <c r="AP2" s="9"/>
+      <c r="AN2" s="9"/>
     </row>
-    <row r="3" spans="1:42" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30"/>
       <c r="B3" s="31"/>
       <c r="C3" s="65"/>
@@ -1418,16 +1335,14 @@
         <f>SUM(AK5:AK1048576)</f>
         <v>0</v>
       </c>
-      <c r="AL3" s="41"/>
-      <c r="AM3" s="43"/>
-      <c r="AN3" s="47"/>
-      <c r="AO3" s="70"/>
-      <c r="AP3" s="74">
-        <f>SUM(AP5:AP1048576)</f>
+      <c r="AL3" s="47"/>
+      <c r="AM3" s="70"/>
+      <c r="AN3" s="74">
+        <f>SUM(AN5:AN1048576)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:42" s="18" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" s="18" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="66" t="s">
         <v>31</v>
       </c>
@@ -1527,7 +1442,7 @@
       <c r="AG4" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="AH4" s="56" t="s">
+      <c r="AH4" s="60" t="s">
         <v>28</v>
       </c>
       <c r="AI4" s="55" t="s">
@@ -1540,22 +1455,16 @@
         <v>16</v>
       </c>
       <c r="AL4" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="AM4" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="AN4" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="AO4" s="55" t="s">
+      <c r="AM4" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="AP4" s="69" t="s">
+      <c r="AN4" s="69" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>37</v>
       </c>
@@ -1622,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="AE5" s="61">
-        <f>IF(D5,AJ5/D5,0)</f>
+        <f>SUMPRODUCT(K5:N5,O5:R5)</f>
         <v>0</v>
       </c>
       <c r="AF5" s="13"/>
@@ -1630,7 +1539,10 @@
         <f>1-AF5</f>
         <v>1</v>
       </c>
-      <c r="AH5" s="52"/>
+      <c r="AH5" s="81">
+        <f>AF5*K5+AG5*L5</f>
+        <v>0</v>
+      </c>
       <c r="AI5" s="71"/>
       <c r="AJ5" s="73">
         <f>AH5*D5</f>
@@ -1640,25 +1552,20 @@
         <f t="shared" ref="AK5" si="3">AH5*D5*AI5</f>
         <v>0</v>
       </c>
-      <c r="AL5" s="13"/>
-      <c r="AM5" s="26">
-        <f>1-AL5</f>
-        <v>1</v>
-      </c>
-      <c r="AN5" s="52"/>
-      <c r="AO5" s="71">
+      <c r="AL5" s="52"/>
+      <c r="AM5" s="71">
         <f>AI5</f>
         <v>0</v>
       </c>
-      <c r="AP5" s="75">
-        <f>AN5*AO5*G5</f>
+      <c r="AN5" s="75">
+        <f>AL5*AM5*G5</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A4:B4" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="A5:AP99999">
+  <conditionalFormatting sqref="A5:AN99999">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$B5&lt;&gt;$B4</formula>
     </cfRule>
@@ -1668,6 +1575,5 @@
   <ignoredErrors>
     <ignoredError sqref="R5" formulaRange="1"/>
   </ignoredErrors>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/app/templates/report/forecast.xlsx
+++ b/app/templates/report/forecast.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF653CC-DC4A-46A2-B070-7E9C0B729123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19BA4974-7A01-44E7-9338-65D9BA613772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -721,7 +721,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -1124,7 +1124,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1519,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="AB5" s="79">
-        <f>AA5*C5</f>
+        <f>IF(OR(B5="PFC002",B5="SAR326"),AA5/1.1*C5,AA5*C5)</f>
         <v>0</v>
       </c>
       <c r="AC5" s="61">

--- a/app/templates/report/forecast.xlsx
+++ b/app/templates/report/forecast.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19BA4974-7A01-44E7-9338-65D9BA613772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6401D3DB-975D-489B-B571-FDC99B16F9B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
   <si>
     <t>Resource</t>
   </si>
@@ -148,9 +148,6 @@
     <t>Month</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>%
 DUI</t>
   </si>
@@ -191,6 +188,14 @@
   </si>
   <si>
     <t>MPR per bed</t>
+  </si>
+  <si>
+    <t>Total
+Rent</t>
+  </si>
+  <si>
+    <t>Total
+Services</t>
   </si>
 </sst>
 </file>
@@ -327,7 +332,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -560,6 +565,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -567,7 +585,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -722,6 +740,14 @@
       <alignment horizontal="centerContinuous" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -729,7 +755,16 @@
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <top style="thin">
@@ -1122,7 +1157,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN5"/>
+  <dimension ref="A1:AQ5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
@@ -1140,16 +1175,18 @@
     <col min="8" max="10" width="8.140625" style="1" customWidth="1"/>
     <col min="11" max="14" width="9.140625" style="1" customWidth="1"/>
     <col min="15" max="22" width="8.85546875" style="1" customWidth="1"/>
-    <col min="23" max="31" width="11.42578125" style="1" customWidth="1"/>
-    <col min="32" max="33" width="8.85546875" style="1" customWidth="1"/>
-    <col min="34" max="35" width="8.5703125" style="1" customWidth="1"/>
-    <col min="36" max="37" width="12.7109375" style="1" customWidth="1"/>
-    <col min="38" max="39" width="8.5703125" style="1" customWidth="1"/>
-    <col min="40" max="40" width="12.7109375" style="1" customWidth="1"/>
-    <col min="41" max="16384" width="14.42578125" style="1"/>
+    <col min="23" max="26" width="11.42578125" style="1" customWidth="1"/>
+    <col min="27" max="29" width="12.7109375" style="1" customWidth="1"/>
+    <col min="30" max="32" width="11.42578125" style="1" customWidth="1"/>
+    <col min="33" max="34" width="8.85546875" style="1" customWidth="1"/>
+    <col min="35" max="36" width="8.5703125" style="1" customWidth="1"/>
+    <col min="37" max="39" width="12.7109375" style="1" customWidth="1"/>
+    <col min="40" max="41" width="8.5703125" style="1" customWidth="1"/>
+    <col min="42" max="43" width="12.7109375" style="1" customWidth="1"/>
+    <col min="44" max="16384" width="14.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>17</v>
       </c>
@@ -1187,24 +1224,27 @@
       <c r="Z1" s="6"/>
       <c r="AA1" s="5"/>
       <c r="AB1" s="5"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="6"/>
       <c r="AE1" s="5"/>
-      <c r="AF1" s="3" t="s">
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AG1" s="5"/>
       <c r="AH1" s="5"/>
       <c r="AI1" s="5"/>
       <c r="AJ1" s="5"/>
-      <c r="AK1" s="6"/>
-      <c r="AL1" s="3" t="s">
+      <c r="AK1" s="5"/>
+      <c r="AL1" s="6"/>
+      <c r="AM1" s="5"/>
+      <c r="AN1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AM1" s="5"/>
-      <c r="AN1" s="6"/>
+      <c r="AO1" s="5"/>
+      <c r="AP1" s="6"/>
+      <c r="AQ1" s="83"/>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>30</v>
       </c>
@@ -1212,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>19</v>
@@ -1249,28 +1289,31 @@
       <c r="Z2" s="9"/>
       <c r="AA2" s="8"/>
       <c r="AB2" s="8"/>
-      <c r="AC2" s="80" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="80" t="s">
+        <v>40</v>
+      </c>
       <c r="AE2" s="8"/>
-      <c r="AF2" s="7" t="s">
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AG2" s="8"/>
-      <c r="AH2" s="8" t="s">
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="AI2" s="8"/>
       <c r="AJ2" s="8"/>
-      <c r="AK2" s="9"/>
-      <c r="AL2" s="8" t="s">
+      <c r="AK2" s="8"/>
+      <c r="AL2" s="9"/>
+      <c r="AM2" s="8"/>
+      <c r="AN2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="AM2" s="8"/>
-      <c r="AN2" s="9"/>
+      <c r="AO2" s="8"/>
+      <c r="AP2" s="9"/>
+      <c r="AQ2" s="80"/>
     </row>
-    <row r="3" spans="1:40" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30"/>
       <c r="B3" s="31"/>
       <c r="C3" s="65"/>
@@ -1306,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="X3" s="62">
-        <f t="shared" ref="X3:AB3" si="0">SUM(X5:X1048576)</f>
+        <f t="shared" ref="X3:AC3" si="0">SUM(X5:X1048576)</f>
         <v>0</v>
       </c>
       <c r="Y3" s="62">
@@ -1321,33 +1364,36 @@
         <f t="shared" ref="AA3" si="1">SUM(AA5:AA1048576)</f>
         <v>0</v>
       </c>
-      <c r="AB3" s="64">
+      <c r="AB3" s="77"/>
+      <c r="AC3" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AC3" s="62"/>
       <c r="AD3" s="62"/>
       <c r="AE3" s="62"/>
-      <c r="AF3" s="41"/>
-      <c r="AG3" s="43"/>
-      <c r="AH3" s="47"/>
-      <c r="AI3" s="70"/>
-      <c r="AJ3" s="72">
-        <f t="shared" ref="AJ3" si="2">SUM(AJ5:AJ1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="AK3" s="74">
-        <f>SUM(AK5:AK1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="AL3" s="47"/>
-      <c r="AM3" s="70"/>
-      <c r="AN3" s="74">
-        <f>SUM(AN5:AN1048576)</f>
-        <v>0</v>
-      </c>
+      <c r="AF3" s="62"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="47"/>
+      <c r="AJ3" s="70"/>
+      <c r="AK3" s="72">
+        <f t="shared" ref="AK3" si="2">SUM(AK5:AK1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="AL3" s="74">
+        <f>SUM(AL5:AL1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="AM3" s="77"/>
+      <c r="AN3" s="47"/>
+      <c r="AO3" s="70"/>
+      <c r="AP3" s="74">
+        <f>SUM(AP5:AP1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="64"/>
     </row>
-    <row r="4" spans="1:40" s="18" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:43" s="18" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="66" t="s">
         <v>31</v>
       </c>
@@ -1355,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="58" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="53" t="s">
         <v>8</v>
@@ -1403,16 +1449,16 @@
         <v>27</v>
       </c>
       <c r="S4" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="T4" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="T4" s="55" t="s">
+      <c r="U4" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="U4" s="55" t="s">
+      <c r="V4" s="59" t="s">
         <v>35</v>
-      </c>
-      <c r="V4" s="59" t="s">
-        <v>36</v>
       </c>
       <c r="W4" s="60" t="s">
         <v>1</v>
@@ -1427,51 +1473,60 @@
         <v>4</v>
       </c>
       <c r="AA4" s="60" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB4" s="69" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC4" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB4" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC4" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD4" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE4" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="AD4" s="54" t="s">
+      <c r="AF4" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="AE4" s="54" t="s">
+      <c r="AG4" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH4" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI4" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ4" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK4" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL4" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="AF4" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="AG4" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH4" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI4" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="AJ4" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="AK4" s="69" t="s">
-        <v>16</v>
-      </c>
-      <c r="AL4" s="56" t="s">
+      <c r="AM4" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN4" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="AM4" s="55" t="s">
+      <c r="AO4" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="AN4" s="69" t="s">
-        <v>16</v>
+      <c r="AP4" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ4" s="84" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="28"/>
       <c r="C5" s="67"/>
@@ -1523,54 +1578,62 @@
         <f>SUM(V5:Y5)</f>
         <v>0</v>
       </c>
-      <c r="AB5" s="79">
+      <c r="AB5" s="82"/>
+      <c r="AC5" s="79">
         <f>IF(OR(B5="PFC002",B5="SAR326"),AA5/1.1*C5,AA5*C5)</f>
         <v>0</v>
       </c>
-      <c r="AC5" s="61">
+      <c r="AD5" s="61">
         <f>IF(I5,AA5/I5,0)</f>
         <v>0</v>
       </c>
-      <c r="AD5" s="61">
+      <c r="AE5" s="61">
         <f>IF(D5,AA5/D5,0)</f>
         <v>0</v>
       </c>
-      <c r="AE5" s="61">
+      <c r="AF5" s="61">
         <f>SUMPRODUCT(K5:N5,O5:R5)</f>
         <v>0</v>
       </c>
-      <c r="AF5" s="13"/>
-      <c r="AG5" s="26">
-        <f>1-AF5</f>
+      <c r="AG5" s="13"/>
+      <c r="AH5" s="26">
+        <f>1-AG5</f>
         <v>1</v>
       </c>
-      <c r="AH5" s="81">
-        <f>AF5*K5+AG5*L5</f>
-        <v>0</v>
-      </c>
-      <c r="AI5" s="71"/>
-      <c r="AJ5" s="73">
-        <f>AH5*D5</f>
-        <v>0</v>
-      </c>
-      <c r="AK5" s="75">
-        <f t="shared" ref="AK5" si="3">AH5*D5*AI5</f>
-        <v>0</v>
-      </c>
-      <c r="AL5" s="52"/>
-      <c r="AM5" s="71">
-        <f>AI5</f>
-        <v>0</v>
-      </c>
-      <c r="AN5" s="75">
-        <f>AL5*AM5*G5</f>
-        <v>0</v>
-      </c>
+      <c r="AI5" s="81">
+        <f>AG5*K5+AH5*L5</f>
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="71"/>
+      <c r="AK5" s="73">
+        <f>AI5*D5</f>
+        <v>0</v>
+      </c>
+      <c r="AL5" s="75">
+        <f t="shared" ref="AL5" si="3">AI5*D5*AJ5</f>
+        <v>0</v>
+      </c>
+      <c r="AM5" s="82"/>
+      <c r="AN5" s="52"/>
+      <c r="AO5" s="71">
+        <f>AJ5</f>
+        <v>0</v>
+      </c>
+      <c r="AP5" s="75">
+        <f>AN5*AO5*G5</f>
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="85"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:B4" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="A5:AN99999">
+  <conditionalFormatting sqref="A5:AP99999">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$B5&lt;&gt;$B4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ5:AQ99999">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$B5&lt;&gt;$B4</formula>
     </cfRule>

--- a/app/templates/report/forecast.xlsx
+++ b/app/templates/report/forecast.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6401D3DB-975D-489B-B571-FDC99B16F9B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C4BD96-377E-4945-BB03-C7A920A02375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
   <si>
     <t>Resource</t>
   </si>
@@ -196,6 +196,10 @@
   <si>
     <t>Total
 Services</t>
+  </si>
+  <si>
+    <t>Booking
+fee</t>
   </si>
 </sst>
 </file>
@@ -332,7 +336,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -565,19 +569,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -585,7 +576,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -741,13 +732,6 @@
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -755,16 +739,7 @@
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <border>
         <top style="thin">
@@ -1157,13 +1132,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ5"/>
+  <dimension ref="A1:AP5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1176,17 +1151,17 @@
     <col min="11" max="14" width="9.140625" style="1" customWidth="1"/>
     <col min="15" max="22" width="8.85546875" style="1" customWidth="1"/>
     <col min="23" max="26" width="11.42578125" style="1" customWidth="1"/>
-    <col min="27" max="29" width="12.7109375" style="1" customWidth="1"/>
-    <col min="30" max="32" width="11.42578125" style="1" customWidth="1"/>
-    <col min="33" max="34" width="8.85546875" style="1" customWidth="1"/>
-    <col min="35" max="36" width="8.5703125" style="1" customWidth="1"/>
-    <col min="37" max="39" width="12.7109375" style="1" customWidth="1"/>
+    <col min="27" max="30" width="12.7109375" style="1" customWidth="1"/>
+    <col min="31" max="33" width="11.42578125" style="1" customWidth="1"/>
+    <col min="34" max="35" width="8.85546875" style="1" customWidth="1"/>
+    <col min="36" max="37" width="8.5703125" style="1" customWidth="1"/>
+    <col min="38" max="39" width="12.7109375" style="1" customWidth="1"/>
     <col min="40" max="41" width="8.5703125" style="1" customWidth="1"/>
-    <col min="42" max="43" width="12.7109375" style="1" customWidth="1"/>
-    <col min="44" max="16384" width="14.42578125" style="1"/>
+    <col min="42" max="42" width="12.7109375" style="1" customWidth="1"/>
+    <col min="43" max="16384" width="14.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>17</v>
       </c>
@@ -1225,26 +1200,25 @@
       <c r="AA1" s="5"/>
       <c r="AB1" s="5"/>
       <c r="AC1" s="5"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="6"/>
       <c r="AF1" s="5"/>
-      <c r="AG1" s="3" t="s">
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AH1" s="5"/>
       <c r="AI1" s="5"/>
       <c r="AJ1" s="5"/>
       <c r="AK1" s="5"/>
-      <c r="AL1" s="6"/>
-      <c r="AM1" s="5"/>
+      <c r="AL1" s="5"/>
+      <c r="AM1" s="6"/>
       <c r="AN1" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AO1" s="5"/>
       <c r="AP1" s="6"/>
-      <c r="AQ1" s="83"/>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>30</v>
       </c>
@@ -1290,30 +1264,29 @@
       <c r="AA2" s="8"/>
       <c r="AB2" s="8"/>
       <c r="AC2" s="8"/>
-      <c r="AD2" s="80" t="s">
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="AE2" s="8"/>
       <c r="AF2" s="8"/>
-      <c r="AG2" s="7" t="s">
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AH2" s="8"/>
-      <c r="AI2" s="8" t="s">
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="AJ2" s="8"/>
       <c r="AK2" s="8"/>
-      <c r="AL2" s="9"/>
-      <c r="AM2" s="8"/>
+      <c r="AL2" s="8"/>
+      <c r="AM2" s="9"/>
       <c r="AN2" s="8" t="s">
         <v>19</v>
       </c>
       <c r="AO2" s="8"/>
       <c r="AP2" s="9"/>
-      <c r="AQ2" s="80"/>
     </row>
-    <row r="3" spans="1:43" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30"/>
       <c r="B3" s="31"/>
       <c r="C3" s="65"/>
@@ -1349,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="X3" s="62">
-        <f t="shared" ref="X3:AC3" si="0">SUM(X5:X1048576)</f>
+        <f t="shared" ref="X3:AD3" si="0">SUM(X5:X1048576)</f>
         <v>0</v>
       </c>
       <c r="Y3" s="62">
@@ -1365,35 +1338,34 @@
         <v>0</v>
       </c>
       <c r="AB3" s="77"/>
-      <c r="AC3" s="64">
+      <c r="AC3" s="77"/>
+      <c r="AD3" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD3" s="62"/>
       <c r="AE3" s="62"/>
       <c r="AF3" s="62"/>
-      <c r="AG3" s="41"/>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="47"/>
-      <c r="AJ3" s="70"/>
-      <c r="AK3" s="72">
-        <f t="shared" ref="AK3" si="2">SUM(AK5:AK1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="AL3" s="74">
-        <f>SUM(AL5:AL1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="AM3" s="77"/>
+      <c r="AG3" s="62"/>
+      <c r="AH3" s="41"/>
+      <c r="AI3" s="43"/>
+      <c r="AJ3" s="47"/>
+      <c r="AK3" s="70"/>
+      <c r="AL3" s="72">
+        <f t="shared" ref="AL3" si="2">SUM(AL5:AL1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="AM3" s="74">
+        <f>SUM(AM5:AM1048576)</f>
+        <v>0</v>
+      </c>
       <c r="AN3" s="47"/>
       <c r="AO3" s="70"/>
       <c r="AP3" s="74">
         <f>SUM(AP5:AP1048576)</f>
         <v>0</v>
       </c>
-      <c r="AQ3" s="64"/>
     </row>
-    <row r="4" spans="1:43" s="18" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:42" s="18" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="66" t="s">
         <v>31</v>
       </c>
@@ -1478,38 +1450,38 @@
       <c r="AB4" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="AC4" s="69" t="s">
+      <c r="AC4" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="AD4" s="60" t="s">
+      <c r="AE4" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="AE4" s="54" t="s">
+      <c r="AF4" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="AF4" s="54" t="s">
+      <c r="AG4" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="AG4" s="56" t="s">
+      <c r="AH4" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="AH4" s="57" t="s">
+      <c r="AI4" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="AI4" s="60" t="s">
+      <c r="AJ4" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="AJ4" s="55" t="s">
+      <c r="AK4" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="AK4" s="60" t="s">
+      <c r="AL4" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="AL4" s="69" t="s">
+      <c r="AM4" s="69" t="s">
         <v>44</v>
-      </c>
-      <c r="AM4" s="56" t="s">
-        <v>45</v>
       </c>
       <c r="AN4" s="56" t="s">
         <v>22</v>
@@ -1520,11 +1492,8 @@
       <c r="AP4" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="AQ4" s="84" t="s">
-        <v>45</v>
-      </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>36</v>
       </c>
@@ -1579,61 +1548,55 @@
         <v>0</v>
       </c>
       <c r="AB5" s="82"/>
-      <c r="AC5" s="79">
+      <c r="AC5" s="82"/>
+      <c r="AD5" s="79">
         <f>IF(OR(B5="PFC002",B5="SAR326"),AA5/1.1*C5,AA5*C5)</f>
         <v>0</v>
       </c>
-      <c r="AD5" s="61">
+      <c r="AE5" s="61">
         <f>IF(I5,AA5/I5,0)</f>
         <v>0</v>
       </c>
-      <c r="AE5" s="61">
+      <c r="AF5" s="61">
         <f>IF(D5,AA5/D5,0)</f>
         <v>0</v>
       </c>
-      <c r="AF5" s="61">
+      <c r="AG5" s="61">
         <f>SUMPRODUCT(K5:N5,O5:R5)</f>
         <v>0</v>
       </c>
-      <c r="AG5" s="13"/>
-      <c r="AH5" s="26">
-        <f>1-AG5</f>
+      <c r="AH5" s="13"/>
+      <c r="AI5" s="26">
+        <f>1-AH5</f>
         <v>1</v>
       </c>
-      <c r="AI5" s="81">
-        <f>AG5*K5+AH5*L5</f>
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="71"/>
-      <c r="AK5" s="73">
-        <f>AI5*D5</f>
-        <v>0</v>
-      </c>
-      <c r="AL5" s="75">
-        <f t="shared" ref="AL5" si="3">AI5*D5*AJ5</f>
-        <v>0</v>
-      </c>
-      <c r="AM5" s="82"/>
+      <c r="AJ5" s="81">
+        <f>AH5*K5+AI5*L5</f>
+        <v>0</v>
+      </c>
+      <c r="AK5" s="71"/>
+      <c r="AL5" s="73">
+        <f>AJ5*D5</f>
+        <v>0</v>
+      </c>
+      <c r="AM5" s="75">
+        <f t="shared" ref="AM5" si="3">AJ5*D5*AK5</f>
+        <v>0</v>
+      </c>
       <c r="AN5" s="52"/>
       <c r="AO5" s="71">
-        <f>AJ5</f>
+        <f>AK5</f>
         <v>0</v>
       </c>
       <c r="AP5" s="75">
         <f>AN5*AO5*G5</f>
         <v>0</v>
       </c>
-      <c r="AQ5" s="85"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:B4" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="A5:AP99999">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$B5&lt;&gt;$B4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ5:AQ99999">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$B5&lt;&gt;$B4</formula>
     </cfRule>

--- a/app/templates/report/forecast.xlsx
+++ b/app/templates/report/forecast.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C4BD96-377E-4945-BB03-C7A920A02375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E2E646-D37A-4C44-842E-E382B73B69B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1138,7 +1138,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1544,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="AA5" s="78">
-        <f>SUM(V5:Y5)</f>
+        <f>SUM(W5:Z5)</f>
         <v>0</v>
       </c>
       <c r="AB5" s="82"/>

--- a/app/templates/report/forecast.xlsx
+++ b/app/templates/report/forecast.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E2E646-D37A-4C44-842E-E382B73B69B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2536142-A312-43D1-8265-9B98F4776030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Forecast!$A$4:$B$4</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
   <si>
     <t>Resource</t>
   </si>
@@ -200,6 +200,10 @@
   <si>
     <t>Booking
 fee</t>
+  </si>
+  <si>
+    <t>Adj.
+Beds</t>
   </si>
 </sst>
 </file>
@@ -274,7 +278,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -335,6 +339,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="20">
     <border>
@@ -576,7 +592,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -732,6 +748,10 @@
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -1132,7 +1152,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP5"/>
+  <dimension ref="A1:AQ5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
@@ -1146,22 +1166,22 @@
     <col min="1" max="1" width="9.85546875" style="25" customWidth="1"/>
     <col min="2" max="2" width="14.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
-    <col min="4" max="7" width="6.5703125" style="1" customWidth="1"/>
-    <col min="8" max="10" width="8.140625" style="1" customWidth="1"/>
-    <col min="11" max="14" width="9.140625" style="1" customWidth="1"/>
-    <col min="15" max="22" width="8.85546875" style="1" customWidth="1"/>
-    <col min="23" max="26" width="11.42578125" style="1" customWidth="1"/>
-    <col min="27" max="30" width="12.7109375" style="1" customWidth="1"/>
-    <col min="31" max="33" width="11.42578125" style="1" customWidth="1"/>
-    <col min="34" max="35" width="8.85546875" style="1" customWidth="1"/>
-    <col min="36" max="37" width="8.5703125" style="1" customWidth="1"/>
-    <col min="38" max="39" width="12.7109375" style="1" customWidth="1"/>
-    <col min="40" max="41" width="8.5703125" style="1" customWidth="1"/>
-    <col min="42" max="42" width="12.7109375" style="1" customWidth="1"/>
-    <col min="43" max="16384" width="14.42578125" style="1"/>
+    <col min="4" max="8" width="6.5703125" style="1" customWidth="1"/>
+    <col min="9" max="11" width="8.140625" style="1" customWidth="1"/>
+    <col min="12" max="15" width="9.140625" style="1" customWidth="1"/>
+    <col min="16" max="23" width="8.85546875" style="1" customWidth="1"/>
+    <col min="24" max="27" width="11.42578125" style="1" customWidth="1"/>
+    <col min="28" max="31" width="12.7109375" style="1" customWidth="1"/>
+    <col min="32" max="34" width="11.42578125" style="1" customWidth="1"/>
+    <col min="35" max="36" width="8.85546875" style="1" customWidth="1"/>
+    <col min="37" max="38" width="8.5703125" style="1" customWidth="1"/>
+    <col min="39" max="40" width="12.7109375" style="1" customWidth="1"/>
+    <col min="41" max="42" width="8.5703125" style="1" customWidth="1"/>
+    <col min="43" max="43" width="12.7109375" style="1" customWidth="1"/>
+    <col min="44" max="16384" width="14.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>17</v>
       </c>
@@ -1175,11 +1195,11 @@
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
@@ -1193,32 +1213,33 @@
       <c r="T1" s="5"/>
       <c r="U1" s="5"/>
       <c r="V1" s="5"/>
-      <c r="W1" s="21"/>
+      <c r="W1" s="5"/>
       <c r="X1" s="21"/>
       <c r="Y1" s="21"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="5"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="6"/>
       <c r="AB1" s="5"/>
       <c r="AC1" s="5"/>
       <c r="AD1" s="5"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="6"/>
       <c r="AG1" s="5"/>
-      <c r="AH1" s="3" t="s">
+      <c r="AH1" s="5"/>
+      <c r="AI1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AI1" s="5"/>
       <c r="AJ1" s="5"/>
       <c r="AK1" s="5"/>
       <c r="AL1" s="5"/>
-      <c r="AM1" s="6"/>
-      <c r="AN1" s="3" t="s">
+      <c r="AM1" s="5"/>
+      <c r="AN1" s="6"/>
+      <c r="AO1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AO1" s="5"/>
-      <c r="AP1" s="6"/>
+      <c r="AP1" s="5"/>
+      <c r="AQ1" s="6"/>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>30</v>
       </c>
@@ -1234,138 +1255,140 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="7" t="s">
+      <c r="J2" s="8"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="8"/>
       <c r="M2" s="8"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="7"/>
       <c r="Q2" s="8"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="7" t="s">
+      <c r="R2" s="8"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="T2" s="8"/>
       <c r="U2" s="8"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="22" t="s">
+      <c r="V2" s="8"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="X2" s="22"/>
       <c r="Y2" s="22"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="8"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="9"/>
       <c r="AB2" s="8"/>
       <c r="AC2" s="8"/>
       <c r="AD2" s="8"/>
-      <c r="AE2" s="80" t="s">
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="AF2" s="8"/>
       <c r="AG2" s="8"/>
-      <c r="AH2" s="7" t="s">
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AI2" s="8"/>
-      <c r="AJ2" s="8" t="s">
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
-      <c r="AM2" s="9"/>
-      <c r="AN2" s="8" t="s">
+      <c r="AM2" s="8"/>
+      <c r="AN2" s="9"/>
+      <c r="AO2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="AO2" s="8"/>
-      <c r="AP2" s="9"/>
+      <c r="AP2" s="8"/>
+      <c r="AQ2" s="9"/>
     </row>
-    <row r="3" spans="1:42" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30"/>
       <c r="B3" s="31"/>
       <c r="C3" s="65"/>
       <c r="D3" s="32"/>
       <c r="E3" s="33"/>
       <c r="F3" s="33"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="39"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="38"/>
       <c r="M3" s="39"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="42"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="41"/>
       <c r="Q3" s="42"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="44">
+      <c r="R3" s="42"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="44">
         <v>0.28999999999999998</v>
-      </c>
-      <c r="T3" s="45">
-        <v>0.05</v>
       </c>
       <c r="U3" s="45">
         <v>0.05</v>
       </c>
-      <c r="V3" s="46">
+      <c r="V3" s="45">
+        <v>0.05</v>
+      </c>
+      <c r="W3" s="46">
         <v>0.1</v>
       </c>
-      <c r="W3" s="62">
-        <f>SUM(W5:W1048576)</f>
-        <v>0</v>
-      </c>
       <c r="X3" s="62">
-        <f t="shared" ref="X3:AD3" si="0">SUM(X5:X1048576)</f>
+        <f>SUM(X5:X1048576)</f>
         <v>0</v>
       </c>
       <c r="Y3" s="62">
+        <f t="shared" ref="Y3:AA3" si="0">SUM(Y5:Y1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z3" s="63">
+      <c r="AA3" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA3" s="77">
-        <f t="shared" ref="AA3" si="1">SUM(AA5:AA1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="AB3" s="77"/>
+      <c r="AB3" s="77">
+        <f t="shared" ref="AB3" si="1">SUM(AB5:AB1048576)</f>
+        <v>0</v>
+      </c>
       <c r="AC3" s="77"/>
-      <c r="AD3" s="64">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE3" s="62"/>
+      <c r="AD3" s="77"/>
+      <c r="AE3" s="64">
+        <f>SUM(AE5:AE1048576)</f>
+        <v>0</v>
+      </c>
       <c r="AF3" s="62"/>
       <c r="AG3" s="62"/>
-      <c r="AH3" s="41"/>
-      <c r="AI3" s="43"/>
-      <c r="AJ3" s="47"/>
-      <c r="AK3" s="70"/>
-      <c r="AL3" s="72">
-        <f t="shared" ref="AL3" si="2">SUM(AL5:AL1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="AM3" s="74">
-        <f>SUM(AM5:AM1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="AN3" s="47"/>
-      <c r="AO3" s="70"/>
-      <c r="AP3" s="74">
-        <f>SUM(AP5:AP1048576)</f>
+      <c r="AH3" s="62"/>
+      <c r="AI3" s="41"/>
+      <c r="AJ3" s="43"/>
+      <c r="AK3" s="47"/>
+      <c r="AL3" s="70"/>
+      <c r="AM3" s="72">
+        <f t="shared" ref="AM3" si="2">SUM(AM5:AM1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="AN3" s="74">
+        <f>SUM(AN5:AN1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="AO3" s="47"/>
+      <c r="AP3" s="70"/>
+      <c r="AQ3" s="74">
+        <f>SUM(AQ5:AQ1048576)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:42" s="18" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:43" s="18" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="66" t="s">
         <v>31</v>
       </c>
@@ -1381,119 +1404,122 @@
       <c r="E4" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="83" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="55" t="s">
+      <c r="H4" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="56" t="s">
+      <c r="I4" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="54" t="s">
+      <c r="J4" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="57" t="s">
+      <c r="K4" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="53" t="s">
+      <c r="L4" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="58" t="s">
+      <c r="M4" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="58" t="s">
+      <c r="N4" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="59" t="s">
+      <c r="O4" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="56" t="s">
+      <c r="P4" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="P4" s="55" t="s">
+      <c r="Q4" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="Q4" s="55" t="s">
+      <c r="R4" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="R4" s="57" t="s">
+      <c r="S4" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="S4" s="56" t="s">
+      <c r="T4" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="T4" s="55" t="s">
+      <c r="U4" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="U4" s="55" t="s">
+      <c r="V4" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="V4" s="59" t="s">
+      <c r="W4" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="W4" s="60" t="s">
+      <c r="X4" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="X4" s="54" t="s">
+      <c r="Y4" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="Y4" s="54" t="s">
+      <c r="Z4" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="Z4" s="54" t="s">
+      <c r="AA4" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="AA4" s="60" t="s">
+      <c r="AB4" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="AB4" s="56" t="s">
+      <c r="AC4" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="AC4" s="56" t="s">
+      <c r="AD4" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="AD4" s="69" t="s">
+      <c r="AE4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="AE4" s="60" t="s">
+      <c r="AF4" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="AF4" s="54" t="s">
+      <c r="AG4" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="AG4" s="54" t="s">
+      <c r="AH4" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="AH4" s="56" t="s">
+      <c r="AI4" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="AI4" s="57" t="s">
+      <c r="AJ4" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="AJ4" s="60" t="s">
+      <c r="AK4" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="AK4" s="55" t="s">
+      <c r="AL4" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="AL4" s="60" t="s">
+      <c r="AM4" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="AM4" s="69" t="s">
+      <c r="AN4" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="AN4" s="56" t="s">
+      <c r="AO4" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="AO4" s="55" t="s">
+      <c r="AP4" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="AP4" s="69" t="s">
+      <c r="AQ4" s="69" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>36</v>
       </c>
@@ -1501,102 +1527,103 @@
       <c r="C5" s="67"/>
       <c r="D5" s="29"/>
       <c r="E5" s="68"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="2">
-        <f>H5*E5</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="11">
-        <f>IF(D5&lt;&gt;0,I5/D5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="49"/>
-      <c r="L5" s="50"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="2">
+        <f>I5*E5</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="11">
+        <f>IF(D5&lt;&gt;0,J5/D5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="49"/>
       <c r="M5" s="50"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="14"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="13"/>
       <c r="Q5" s="14"/>
-      <c r="R5" s="26">
-        <f>1-SUM(O5:Q5)</f>
+      <c r="R5" s="14"/>
+      <c r="S5" s="26">
+        <f>1-SUM(P5:R5)</f>
         <v>1</v>
       </c>
-      <c r="S5" s="15"/>
-      <c r="T5" s="16"/>
+      <c r="T5" s="15"/>
       <c r="U5" s="16"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="61">
-        <f>(1-SUMPRODUCT($S$3:$V$3,$S5:$V5))*K5*$I5*O5</f>
-        <v>0</v>
-      </c>
+      <c r="V5" s="16"/>
+      <c r="W5" s="17"/>
       <c r="X5" s="61">
-        <f>(1-SUMPRODUCT($S$3:$V$3,$S5:$V5))*L5*$I5*P5</f>
+        <f>(1-SUMPRODUCT($T$3:$W$3,$T5:$W5))*L5*$J5*P5</f>
         <v>0</v>
       </c>
       <c r="Y5" s="61">
-        <f>(1-SUMPRODUCT($S$3:$V$3,$S5:$V5))*M5*$I5*Q5</f>
-        <v>0</v>
-      </c>
-      <c r="Z5" s="76">
-        <f>(1-SUMPRODUCT($S$3:$V$3,$S5:$V5))*N5*$I5*R5</f>
-        <v>0</v>
-      </c>
-      <c r="AA5" s="78">
-        <f>SUM(W5:Z5)</f>
-        <v>0</v>
-      </c>
-      <c r="AB5" s="82"/>
+        <f>(1-SUMPRODUCT($T$3:$W$3,$T5:$W5))*M5*$J5*Q5</f>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="61">
+        <f>(1-SUMPRODUCT($T$3:$W$3,$T5:$W5))*N5*$J5*R5</f>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="76">
+        <f>(1-SUMPRODUCT($T$3:$W$3,$T5:$W5))*O5*$J5*S5</f>
+        <v>0</v>
+      </c>
+      <c r="AB5" s="78">
+        <f>SUM(X5:AA5)</f>
+        <v>0</v>
+      </c>
       <c r="AC5" s="82"/>
-      <c r="AD5" s="79">
-        <f>IF(OR(B5="PFC002",B5="SAR326"),AA5/1.1*C5,AA5*C5)</f>
-        <v>0</v>
-      </c>
-      <c r="AE5" s="61">
-        <f>IF(I5,AA5/I5,0)</f>
+      <c r="AD5" s="82"/>
+      <c r="AE5" s="79">
+        <f>IF(OR(B5="PFC002",B5="SAR326"),AB5/1.1*C5,AB5*C5)</f>
         <v>0</v>
       </c>
       <c r="AF5" s="61">
-        <f>IF(D5,AA5/D5,0)</f>
+        <f>IF(J5,AB5/J5,0)</f>
         <v>0</v>
       </c>
       <c r="AG5" s="61">
-        <f>SUMPRODUCT(K5:N5,O5:R5)</f>
-        <v>0</v>
-      </c>
-      <c r="AH5" s="13"/>
-      <c r="AI5" s="26">
-        <f>1-AH5</f>
+        <f>IF(D5,AB5/D5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH5" s="61">
+        <f>SUMPRODUCT(L5:O5,P5:S5)</f>
+        <v>0</v>
+      </c>
+      <c r="AI5" s="13"/>
+      <c r="AJ5" s="26">
+        <f>1-AI5</f>
         <v>1</v>
       </c>
-      <c r="AJ5" s="81">
-        <f>AH5*K5+AI5*L5</f>
-        <v>0</v>
-      </c>
-      <c r="AK5" s="71"/>
-      <c r="AL5" s="73">
-        <f>AJ5*D5</f>
-        <v>0</v>
-      </c>
-      <c r="AM5" s="75">
-        <f t="shared" ref="AM5" si="3">AJ5*D5*AK5</f>
-        <v>0</v>
-      </c>
-      <c r="AN5" s="52"/>
-      <c r="AO5" s="71">
-        <f>AK5</f>
-        <v>0</v>
-      </c>
-      <c r="AP5" s="75">
-        <f>AN5*AO5*G5</f>
+      <c r="AK5" s="81">
+        <f>AI5*L5+AJ5*M5</f>
+        <v>0</v>
+      </c>
+      <c r="AL5" s="71"/>
+      <c r="AM5" s="73">
+        <f>AK5*D5</f>
+        <v>0</v>
+      </c>
+      <c r="AN5" s="75">
+        <f>AK5*D5*AL5</f>
+        <v>0</v>
+      </c>
+      <c r="AO5" s="52"/>
+      <c r="AP5" s="71">
+        <f>AL5</f>
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="75">
+        <f>AO5*AP5*H5</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A4:B4" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="A5:AP99999">
+  <conditionalFormatting sqref="A5:AQ99999">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$B5&lt;&gt;$B4</formula>
     </cfRule>
@@ -1604,7 +1631,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <ignoredErrors>
-    <ignoredError sqref="R5" formulaRange="1"/>
+    <ignoredError sqref="S5" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/app/templates/report/forecast.xlsx
+++ b/app/templates/report/forecast.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2536142-A312-43D1-8265-9B98F4776030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576A781B-2D1B-4138-AA8C-20EE342E80BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Forecast!$A$4:$B$4</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>Resource</t>
   </si>
@@ -75,10 +75,6 @@
 Beds</t>
   </si>
   <si>
-    <t>UW
-Beds</t>
-  </si>
-  <si>
     <t>Occ on Cons.</t>
   </si>
   <si>
@@ -107,17 +103,6 @@
     <t>MPR</t>
   </si>
   <si>
-    <t>UW</t>
-  </si>
-  <si>
-    <t>Price
-UW</t>
-  </si>
-  <si>
-    <t>Occ
-UW</t>
-  </si>
-  <si>
     <t>%
 Long</t>
   </si>
@@ -204,6 +189,9 @@
   <si>
     <t>Adj.
 Beds</t>
+  </si>
+  <si>
+    <t>Final cleaning</t>
   </si>
 </sst>
 </file>
@@ -352,7 +340,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -513,19 +501,6 @@
       <left style="thin">
         <color theme="0" tint="-0.34998626667073579"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -592,14 +567,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -629,7 +601,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="6" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
@@ -657,16 +628,13 @@
     <xf numFmtId="3" fontId="2" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="2" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="6" fontId="2" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -675,27 +643,26 @@
     <xf numFmtId="6" fontId="2" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="6" fontId="2" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="2" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="2" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="10" fontId="3" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="6" fontId="2" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -723,31 +690,31 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="3" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="6" fontId="3" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1152,7 +1119,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ5"/>
+  <dimension ref="A1:AN5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
@@ -1163,467 +1130,431 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="25" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" style="23" customWidth="1"/>
     <col min="2" max="2" width="14.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
-    <col min="4" max="8" width="6.5703125" style="1" customWidth="1"/>
-    <col min="9" max="11" width="8.140625" style="1" customWidth="1"/>
-    <col min="12" max="15" width="9.140625" style="1" customWidth="1"/>
-    <col min="16" max="23" width="8.85546875" style="1" customWidth="1"/>
-    <col min="24" max="27" width="11.42578125" style="1" customWidth="1"/>
-    <col min="28" max="31" width="12.7109375" style="1" customWidth="1"/>
+    <col min="4" max="7" width="6.5703125" style="1" customWidth="1"/>
+    <col min="8" max="10" width="8.140625" style="1" customWidth="1"/>
+    <col min="11" max="14" width="9.140625" style="1" customWidth="1"/>
+    <col min="15" max="22" width="8.85546875" style="1" customWidth="1"/>
+    <col min="23" max="26" width="11.42578125" style="1" customWidth="1"/>
+    <col min="27" max="31" width="12.7109375" style="1" customWidth="1"/>
     <col min="32" max="34" width="11.42578125" style="1" customWidth="1"/>
     <col min="35" max="36" width="8.85546875" style="1" customWidth="1"/>
     <col min="37" max="38" width="8.5703125" style="1" customWidth="1"/>
     <col min="39" max="40" width="12.7109375" style="1" customWidth="1"/>
-    <col min="41" max="42" width="8.5703125" style="1" customWidth="1"/>
-    <col min="43" max="43" width="12.7109375" style="1" customWidth="1"/>
-    <col min="44" max="16384" width="14.42578125" style="1"/>
+    <col min="41" max="16384" width="14.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="10" t="e">
+    <row r="1" spans="1:40" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="9" t="e">
         <f>YEAR(A5)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C1" s="10"/>
+      <c r="C1" s="9"/>
       <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="3" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="4"/>
+      <c r="AI1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
-      <c r="AF1" s="6"/>
-      <c r="AG1" s="5"/>
-      <c r="AH1" s="5"/>
-      <c r="AI1" s="3" t="s">
+      <c r="AJ1" s="4"/>
+      <c r="AK1" s="4"/>
+      <c r="AL1" s="4"/>
+      <c r="AM1" s="4"/>
+      <c r="AN1" s="5"/>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AJ1" s="5"/>
-      <c r="AK1" s="5"/>
-      <c r="AL1" s="5"/>
-      <c r="AM1" s="5"/>
-      <c r="AN1" s="6"/>
-      <c r="AO1" s="3" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="76" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="7"/>
+      <c r="AN2" s="8"/>
+    </row>
+    <row r="3" spans="1:40" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="41">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="T3" s="42">
+        <v>0.05</v>
+      </c>
+      <c r="U3" s="42">
+        <v>0.05</v>
+      </c>
+      <c r="V3" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="W3" s="58">
+        <f>SUM(W5:W1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="X3" s="58">
+        <f t="shared" ref="X3:Z3" si="0">SUM(X5:X1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="73">
+        <f t="shared" ref="AA3" si="1">SUM(AA5:AA1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="AB3" s="73"/>
+      <c r="AC3" s="73"/>
+      <c r="AD3" s="73"/>
+      <c r="AE3" s="60">
+        <f>SUM(AE5:AE1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="AF3" s="58"/>
+      <c r="AG3" s="58"/>
+      <c r="AH3" s="58"/>
+      <c r="AI3" s="38"/>
+      <c r="AJ3" s="40"/>
+      <c r="AK3" s="44"/>
+      <c r="AL3" s="66"/>
+      <c r="AM3" s="68">
+        <f t="shared" ref="AM3" si="2">SUM(AM5:AM1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="AN3" s="70">
+        <f>SUM(AN5:AN1048576)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" s="17" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="79" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="AP1" s="5"/>
-      <c r="AQ1" s="6"/>
+      <c r="Q4" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="S4" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="T4" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="U4" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="V4" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="W4" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="X4" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA4" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB4" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC4" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD4" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE4" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF4" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG4" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH4" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI4" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ4" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK4" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL4" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM4" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN4" s="65" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="80" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG2" s="8"/>
-      <c r="AH2" s="8"/>
-      <c r="AI2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ2" s="8"/>
-      <c r="AK2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="AL2" s="8"/>
-      <c r="AM2" s="8"/>
-      <c r="AN2" s="9"/>
-      <c r="AO2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="AP2" s="8"/>
-      <c r="AQ2" s="9"/>
-    </row>
-    <row r="3" spans="1:43" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="44">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="U3" s="45">
-        <v>0.05</v>
-      </c>
-      <c r="V3" s="45">
-        <v>0.05</v>
-      </c>
-      <c r="W3" s="46">
-        <v>0.1</v>
-      </c>
-      <c r="X3" s="62">
-        <f>SUM(X5:X1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="Y3" s="62">
-        <f t="shared" ref="Y3:AA3" si="0">SUM(Y5:Y1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="Z3" s="62">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA3" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB3" s="77">
-        <f t="shared" ref="AB3" si="1">SUM(AB5:AB1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="AC3" s="77"/>
-      <c r="AD3" s="77"/>
-      <c r="AE3" s="64">
-        <f>SUM(AE5:AE1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="AF3" s="62"/>
-      <c r="AG3" s="62"/>
-      <c r="AH3" s="62"/>
-      <c r="AI3" s="41"/>
-      <c r="AJ3" s="43"/>
-      <c r="AK3" s="47"/>
-      <c r="AL3" s="70"/>
-      <c r="AM3" s="72">
-        <f t="shared" ref="AM3" si="2">SUM(AM5:AM1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="AN3" s="74">
-        <f>SUM(AN5:AN1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="AO3" s="47"/>
-      <c r="AP3" s="70"/>
-      <c r="AQ3" s="74">
-        <f>SUM(AQ5:AQ1048576)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43" s="18" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="66" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="58" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="83" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="57" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="53" t="s">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="26"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="2">
+        <f>H5*E5</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="10">
+        <f>IF(D5&lt;&gt;0,I5/D5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="46"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="24">
+        <f>1-SUM(O5:Q5)</f>
         <v>1</v>
       </c>
-      <c r="M4" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="N4" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="O4" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="P4" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q4" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="R4" s="55" t="s">
-        <v>26</v>
-      </c>
-      <c r="S4" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="T4" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="U4" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="V4" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="W4" s="59" t="s">
-        <v>35</v>
-      </c>
-      <c r="X4" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z4" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA4" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB4" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC4" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD4" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE4" s="69" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF4" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG4" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH4" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="AI4" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="AJ4" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK4" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL4" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="AM4" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="AN4" s="69" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO4" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="AP4" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="AQ4" s="69" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="2">
-        <f>I5*E5</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="11">
-        <f>IF(D5&lt;&gt;0,J5/D5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="49"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="26">
-        <f>1-SUM(P5:R5)</f>
-        <v>1</v>
-      </c>
+      <c r="S5" s="14"/>
       <c r="T5" s="15"/>
-      <c r="U5" s="16"/>
+      <c r="U5" s="15"/>
       <c r="V5" s="16"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="61">
-        <f>(1-SUMPRODUCT($T$3:$W$3,$T5:$W5))*L5*$J5*P5</f>
-        <v>0</v>
-      </c>
-      <c r="Y5" s="61">
-        <f>(1-SUMPRODUCT($T$3:$W$3,$T5:$W5))*M5*$J5*Q5</f>
-        <v>0</v>
-      </c>
-      <c r="Z5" s="61">
-        <f>(1-SUMPRODUCT($T$3:$W$3,$T5:$W5))*N5*$J5*R5</f>
-        <v>0</v>
-      </c>
-      <c r="AA5" s="76">
-        <f>(1-SUMPRODUCT($T$3:$W$3,$T5:$W5))*O5*$J5*S5</f>
-        <v>0</v>
-      </c>
-      <c r="AB5" s="78">
-        <f>SUM(X5:AA5)</f>
-        <v>0</v>
-      </c>
-      <c r="AC5" s="82"/>
-      <c r="AD5" s="82"/>
-      <c r="AE5" s="79">
-        <f>IF(OR(B5="PFC002",B5="SAR326"),AB5/1.1*C5,AB5*C5)</f>
-        <v>0</v>
-      </c>
-      <c r="AF5" s="61">
-        <f>IF(J5,AB5/J5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AG5" s="61">
-        <f>IF(D5,AB5/D5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AH5" s="61">
-        <f>SUMPRODUCT(L5:O5,P5:S5)</f>
-        <v>0</v>
-      </c>
-      <c r="AI5" s="13"/>
-      <c r="AJ5" s="26">
+      <c r="W5" s="57">
+        <f>(1-SUMPRODUCT($S$3:$V$3,$S5:$V5))*K5*$I5*O5</f>
+        <v>0</v>
+      </c>
+      <c r="X5" s="57">
+        <f>(1-SUMPRODUCT($S$3:$V$3,$S5:$V5))*L5*$I5*P5</f>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="57">
+        <f>(1-SUMPRODUCT($S$3:$V$3,$S5:$V5))*M5*$I5*Q5</f>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="72">
+        <f>(1-SUMPRODUCT($S$3:$V$3,$S5:$V5))*N5*$I5*R5</f>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="74">
+        <f>SUM(W5:Z5)</f>
+        <v>0</v>
+      </c>
+      <c r="AB5" s="78"/>
+      <c r="AC5" s="78"/>
+      <c r="AD5" s="78"/>
+      <c r="AE5" s="75">
+        <f>IF(OR(B5="PFC002",B5="SAR326"),AA5/1.1*C5,AA5*C5)</f>
+        <v>0</v>
+      </c>
+      <c r="AF5" s="57">
+        <f>IF(I5,AA5/I5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG5" s="57">
+        <f>IF(D5,AA5/D5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH5" s="57">
+        <f>SUMPRODUCT(K5:N5,O5:R5)</f>
+        <v>0</v>
+      </c>
+      <c r="AI5" s="12"/>
+      <c r="AJ5" s="24">
         <f>1-AI5</f>
         <v>1</v>
       </c>
-      <c r="AK5" s="81">
-        <f>AI5*L5+AJ5*M5</f>
-        <v>0</v>
-      </c>
-      <c r="AL5" s="71"/>
-      <c r="AM5" s="73">
+      <c r="AK5" s="77">
+        <f>AI5*K5+AJ5*L5</f>
+        <v>0</v>
+      </c>
+      <c r="AL5" s="67"/>
+      <c r="AM5" s="69">
         <f>AK5*D5</f>
         <v>0</v>
       </c>
-      <c r="AN5" s="75">
+      <c r="AN5" s="71">
         <f>AK5*D5*AL5</f>
-        <v>0</v>
-      </c>
-      <c r="AO5" s="52"/>
-      <c r="AP5" s="71">
-        <f>AL5</f>
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="75">
-        <f>AO5*AP5*H5</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A4:B4" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="A5:AQ99999">
+  <conditionalFormatting sqref="A5:AN99999">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$B5&lt;&gt;$B4</formula>
     </cfRule>
@@ -1631,7 +1562,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <ignoredErrors>
-    <ignoredError sqref="S5" formulaRange="1"/>
+    <ignoredError sqref="R5" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/app/templates/report/forecast.xlsx
+++ b/app/templates/report/forecast.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576A781B-2D1B-4138-AA8C-20EE342E80BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15A501A-83C1-4EC6-81DE-A9BCD463A90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
   <si>
     <t>Resource</t>
   </si>
@@ -71,10 +71,6 @@
 Beds</t>
   </si>
   <si>
-    <t>Proj.
-Beds</t>
-  </si>
-  <si>
     <t>Occ on Cons.</t>
   </si>
   <si>
@@ -133,22 +129,6 @@
     <t>Month</t>
   </si>
   <si>
-    <t>%
-DUI</t>
-  </si>
-  <si>
-    <t>%
-Other</t>
-  </si>
-  <si>
-    <t>%
-Summer</t>
-  </si>
-  <si>
-    <t>%
-Old rate</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
@@ -192,6 +172,18 @@
   </si>
   <si>
     <t>Final cleaning</t>
+  </si>
+  <si>
+    <t>Stab.
+Beds</t>
+  </si>
+  <si>
+    <t>%
+Discount</t>
+  </si>
+  <si>
+    <t>%
+…</t>
   </si>
 </sst>
 </file>
@@ -1148,7 +1140,7 @@
   <sheetData>
     <row r="1" spans="1:40" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="9" t="e">
         <f>YEAR(A5)</f>
@@ -1162,7 +1154,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -1191,7 +1183,7 @@
       <c r="AG1" s="4"/>
       <c r="AH1" s="4"/>
       <c r="AI1" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ1" s="4"/>
       <c r="AK1" s="4"/>
@@ -1201,16 +1193,16 @@
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -1221,7 +1213,7 @@
       <c r="I2" s="7"/>
       <c r="J2" s="8"/>
       <c r="K2" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
@@ -1231,13 +1223,13 @@
       <c r="Q2" s="7"/>
       <c r="R2" s="8"/>
       <c r="S2" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T2" s="7"/>
       <c r="U2" s="7"/>
       <c r="V2" s="8"/>
       <c r="W2" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="X2" s="20"/>
       <c r="Y2" s="20"/>
@@ -1248,16 +1240,16 @@
       <c r="AD2" s="7"/>
       <c r="AE2" s="7"/>
       <c r="AF2" s="76" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="AG2" s="7"/>
       <c r="AH2" s="7"/>
       <c r="AI2" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL2" s="7"/>
       <c r="AM2" s="7"/>
@@ -1282,17 +1274,11 @@
       <c r="P3" s="39"/>
       <c r="Q3" s="39"/>
       <c r="R3" s="40"/>
-      <c r="S3" s="41">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="T3" s="42">
-        <v>0.05</v>
-      </c>
-      <c r="U3" s="42">
-        <v>0.05</v>
-      </c>
+      <c r="S3" s="41"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
       <c r="V3" s="43">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="W3" s="58">
         <f>SUM(W5:W1048576)</f>
@@ -1339,13 +1325,13 @@
     </row>
     <row r="4" spans="1:40" s="17" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="62" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="54" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D4" s="49" t="s">
         <v>8</v>
@@ -1354,19 +1340,19 @@
         <v>9</v>
       </c>
       <c r="F4" s="79" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G4" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="52" t="s">
         <v>10</v>
-      </c>
-      <c r="H4" s="52" t="s">
-        <v>11</v>
       </c>
       <c r="I4" s="50" t="s">
         <v>7</v>
       </c>
       <c r="J4" s="53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K4" s="49" t="s">
         <v>1</v>
@@ -1381,28 +1367,28 @@
         <v>4</v>
       </c>
       <c r="O4" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="P4" s="51" t="s">
+      <c r="Q4" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="51" t="s">
+      <c r="R4" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="R4" s="53" t="s">
-        <v>23</v>
-      </c>
       <c r="S4" s="52" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="T4" s="51" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="U4" s="51" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="V4" s="55" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="W4" s="56" t="s">
         <v>1</v>
@@ -1417,51 +1403,51 @@
         <v>4</v>
       </c>
       <c r="AA4" s="56" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AB4" s="52" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="AC4" s="52" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="AD4" s="52" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AE4" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF4" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG4" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH4" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI4" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ4" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK4" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL4" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM4" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN4" s="65" t="s">
         <v>35</v>
-      </c>
-      <c r="AF4" s="56" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG4" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH4" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI4" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ4" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK4" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="AL4" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM4" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="AN4" s="65" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B5" s="26"/>
       <c r="C5" s="63"/>
@@ -1543,11 +1529,11 @@
       </c>
       <c r="AL5" s="67"/>
       <c r="AM5" s="69">
-        <f>AK5*D5</f>
+        <f>AK5*G5</f>
         <v>0</v>
       </c>
       <c r="AN5" s="71">
-        <f>AK5*D5*AL5</f>
+        <f>AK5*G5*AL5</f>
         <v>0</v>
       </c>
     </row>

--- a/app/templates/report/forecast.xlsx
+++ b/app/templates/report/forecast.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15A501A-83C1-4EC6-81DE-A9BCD463A90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC9001C-FE82-4D4F-975D-0E542D9648D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
   <si>
     <t>Resource</t>
   </si>
@@ -96,9 +96,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>MPR</t>
-  </si>
-  <si>
     <t>%
 Long</t>
   </si>
@@ -184,6 +181,19 @@
   <si>
     <t>%
 …</t>
+  </si>
+  <si>
+    <t>Pot.
+Beds</t>
+  </si>
+  <si>
+    <t>MPR Available</t>
+  </si>
+  <si>
+    <t>MPR Convertible</t>
+  </si>
+  <si>
+    <t>MPR Potential</t>
   </si>
 </sst>
 </file>
@@ -258,7 +268,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -331,6 +341,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD966"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="19">
     <border>
@@ -559,7 +575,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -711,6 +727,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -1111,7 +1130,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN5"/>
+  <dimension ref="A1:AQ5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
@@ -1125,20 +1144,20 @@
     <col min="1" max="1" width="9.85546875" style="23" customWidth="1"/>
     <col min="2" max="2" width="14.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
-    <col min="4" max="7" width="6.5703125" style="1" customWidth="1"/>
-    <col min="8" max="10" width="8.140625" style="1" customWidth="1"/>
-    <col min="11" max="14" width="9.140625" style="1" customWidth="1"/>
-    <col min="15" max="22" width="8.85546875" style="1" customWidth="1"/>
-    <col min="23" max="26" width="11.42578125" style="1" customWidth="1"/>
-    <col min="27" max="31" width="12.7109375" style="1" customWidth="1"/>
-    <col min="32" max="34" width="11.42578125" style="1" customWidth="1"/>
-    <col min="35" max="36" width="8.85546875" style="1" customWidth="1"/>
-    <col min="37" max="38" width="8.5703125" style="1" customWidth="1"/>
-    <col min="39" max="40" width="12.7109375" style="1" customWidth="1"/>
-    <col min="41" max="16384" width="14.42578125" style="1"/>
+    <col min="4" max="8" width="6.5703125" style="1" customWidth="1"/>
+    <col min="9" max="11" width="8.140625" style="1" customWidth="1"/>
+    <col min="12" max="15" width="9.140625" style="1" customWidth="1"/>
+    <col min="16" max="23" width="8.85546875" style="1" customWidth="1"/>
+    <col min="24" max="27" width="11.42578125" style="1" customWidth="1"/>
+    <col min="28" max="32" width="12.7109375" style="1" customWidth="1"/>
+    <col min="33" max="35" width="11.42578125" style="1" customWidth="1"/>
+    <col min="36" max="37" width="8.85546875" style="1" customWidth="1"/>
+    <col min="38" max="39" width="8.5703125" style="1" customWidth="1"/>
+    <col min="40" max="43" width="12.7109375" style="1" customWidth="1"/>
+    <col min="44" max="16384" width="14.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>15</v>
       </c>
@@ -1153,10 +1172,10 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4"/>
+      <c r="I1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
@@ -1170,36 +1189,39 @@
       <c r="T1" s="4"/>
       <c r="U1" s="4"/>
       <c r="V1" s="4"/>
-      <c r="W1" s="19"/>
+      <c r="W1" s="4"/>
       <c r="X1" s="19"/>
       <c r="Y1" s="19"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="4"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="5"/>
       <c r="AB1" s="4"/>
       <c r="AC1" s="4"/>
       <c r="AD1" s="4"/>
       <c r="AE1" s="4"/>
-      <c r="AF1" s="5"/>
-      <c r="AG1" s="4"/>
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="5"/>
       <c r="AH1" s="4"/>
-      <c r="AI1" s="3" t="s">
+      <c r="AI1" s="4"/>
+      <c r="AJ1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AJ1" s="4"/>
       <c r="AK1" s="4"/>
       <c r="AL1" s="4"/>
       <c r="AM1" s="4"/>
-      <c r="AN1" s="5"/>
+      <c r="AN1" s="4"/>
+      <c r="AO1" s="4"/>
+      <c r="AP1" s="4"/>
+      <c r="AQ1" s="5"/>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>17</v>
@@ -1207,55 +1229,58 @@
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="6" t="s">
+      <c r="J2" s="7"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="7"/>
       <c r="M2" s="7"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="6"/>
       <c r="Q2" s="7"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="6" t="s">
+      <c r="R2" s="7"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="7"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="20" t="s">
+      <c r="V2" s="7"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="X2" s="20"/>
       <c r="Y2" s="20"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="7"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="8"/>
       <c r="AB2" s="7"/>
       <c r="AC2" s="7"/>
       <c r="AD2" s="7"/>
       <c r="AE2" s="7"/>
-      <c r="AF2" s="76" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="76" t="s">
+        <v>30</v>
+      </c>
       <c r="AH2" s="7"/>
-      <c r="AI2" s="6" t="s">
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="AJ2" s="7"/>
-      <c r="AK2" s="7" t="s">
+      <c r="AK2" s="7"/>
+      <c r="AL2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="AL2" s="7"/>
       <c r="AM2" s="7"/>
-      <c r="AN2" s="8"/>
+      <c r="AN2" s="7"/>
+      <c r="AO2" s="7"/>
+      <c r="AP2" s="7"/>
+      <c r="AQ2" s="8"/>
     </row>
-    <row r="3" spans="1:40" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28"/>
       <c r="B3" s="29"/>
       <c r="C3" s="61"/>
@@ -1263,75 +1288,93 @@
       <c r="E3" s="31"/>
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="36"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="35"/>
       <c r="M3" s="36"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="39"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="38"/>
       <c r="Q3" s="39"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="42"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="41"/>
       <c r="U3" s="42"/>
-      <c r="V3" s="43">
+      <c r="V3" s="42"/>
+      <c r="W3" s="43">
         <v>1</v>
       </c>
-      <c r="W3" s="58">
-        <f>SUM(W5:W1048576)</f>
-        <v>0</v>
-      </c>
       <c r="X3" s="58">
-        <f t="shared" ref="X3:Z3" si="0">SUM(X5:X1048576)</f>
+        <f>SUM(X5:X1048576)</f>
         <v>0</v>
       </c>
       <c r="Y3" s="58">
+        <f t="shared" ref="Y3:AA3" si="0">SUM(Y5:Y1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z3" s="59">
+      <c r="AA3" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA3" s="73">
-        <f t="shared" ref="AA3" si="1">SUM(AA5:AA1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="AB3" s="73"/>
-      <c r="AC3" s="73"/>
-      <c r="AD3" s="73"/>
-      <c r="AE3" s="60">
+      <c r="AB3" s="73">
+        <f t="shared" ref="AB3" si="1">SUM(AB5:AB1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="AC3" s="73">
+        <f>SUM(AC5:AC1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="AD3" s="73">
+        <f>SUM(AD5:AD1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="AE3" s="73">
         <f>SUM(AE5:AE1048576)</f>
         <v>0</v>
       </c>
-      <c r="AF3" s="58"/>
+      <c r="AF3" s="60">
+        <f>SUM(AF5:AF1048576)</f>
+        <v>0</v>
+      </c>
       <c r="AG3" s="58"/>
       <c r="AH3" s="58"/>
-      <c r="AI3" s="38"/>
-      <c r="AJ3" s="40"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="66"/>
-      <c r="AM3" s="68">
-        <f t="shared" ref="AM3" si="2">SUM(AM5:AM1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="AN3" s="70">
-        <f>SUM(AN5:AN1048576)</f>
+      <c r="AI3" s="58"/>
+      <c r="AJ3" s="38"/>
+      <c r="AK3" s="40"/>
+      <c r="AL3" s="44"/>
+      <c r="AM3" s="66"/>
+      <c r="AN3" s="68">
+        <f t="shared" ref="AN3:AQ3" si="2">SUM(AN5:AN1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="AO3" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AP3" s="68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="70">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:40" s="17" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:43" s="17" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="62" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="54" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="49" t="s">
         <v>8</v>
@@ -1340,114 +1383,123 @@
         <v>9</v>
       </c>
       <c r="F4" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="81" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="P4" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="S4" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="T4" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="U4" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="V4" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="W4" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="X4" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA4" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB4" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC4" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD4" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="L4" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="M4" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="N4" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="O4" s="52" t="s">
+      <c r="AE4" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF4" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG4" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH4" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI4" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ4" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK4" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="P4" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q4" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="R4" s="53" t="s">
+      <c r="AL4" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="S4" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="T4" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="U4" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="V4" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="W4" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="X4" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y4" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z4" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA4" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB4" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC4" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD4" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE4" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF4" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG4" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH4" s="50" t="s">
+      <c r="AM4" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="AN4" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO4" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP4" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ4" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="AI4" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ4" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="AK4" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="AL4" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="AM4" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="AN4" s="65" t="s">
-        <v>35</v>
-      </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="26"/>
       <c r="C5" s="63"/>
@@ -1455,92 +1507,101 @@
       <c r="E5" s="64"/>
       <c r="F5" s="80"/>
       <c r="G5" s="18"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="2">
-        <f>H5*E5</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="10">
-        <f>IF(D5&lt;&gt;0,I5/D5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="46"/>
-      <c r="L5" s="47"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="2">
+        <f>I5*E5</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="10">
+        <f>IF(D5&lt;&gt;0,J5/D5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="46"/>
       <c r="M5" s="47"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="13"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="12"/>
       <c r="Q5" s="13"/>
-      <c r="R5" s="24">
-        <f>1-SUM(O5:Q5)</f>
+      <c r="R5" s="13"/>
+      <c r="S5" s="24">
+        <f>1-SUM(P5:R5)</f>
         <v>1</v>
       </c>
-      <c r="S5" s="14"/>
-      <c r="T5" s="15"/>
+      <c r="T5" s="14"/>
       <c r="U5" s="15"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="57">
-        <f>(1-SUMPRODUCT($S$3:$V$3,$S5:$V5))*K5*$I5*O5</f>
-        <v>0</v>
-      </c>
+      <c r="V5" s="15"/>
+      <c r="W5" s="16"/>
       <c r="X5" s="57">
-        <f>(1-SUMPRODUCT($S$3:$V$3,$S5:$V5))*L5*$I5*P5</f>
+        <f>(1-SUMPRODUCT($T$3:$W$3,$T5:$W5))*L5*$J5*P5</f>
         <v>0</v>
       </c>
       <c r="Y5" s="57">
-        <f>(1-SUMPRODUCT($S$3:$V$3,$S5:$V5))*M5*$I5*Q5</f>
-        <v>0</v>
-      </c>
-      <c r="Z5" s="72">
-        <f>(1-SUMPRODUCT($S$3:$V$3,$S5:$V5))*N5*$I5*R5</f>
-        <v>0</v>
-      </c>
-      <c r="AA5" s="74">
-        <f>SUM(W5:Z5)</f>
-        <v>0</v>
-      </c>
-      <c r="AB5" s="78"/>
+        <f>(1-SUMPRODUCT($T$3:$W$3,$T5:$W5))*M5*$J5*Q5</f>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="57">
+        <f>(1-SUMPRODUCT($T$3:$W$3,$T5:$W5))*N5*$J5*R5</f>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="72">
+        <f>(1-SUMPRODUCT($T$3:$W$3,$T5:$W5))*O5*$J5*S5</f>
+        <v>0</v>
+      </c>
+      <c r="AB5" s="74">
+        <f>SUM(X5:AA5)</f>
+        <v>0</v>
+      </c>
       <c r="AC5" s="78"/>
       <c r="AD5" s="78"/>
-      <c r="AE5" s="75">
-        <f>IF(OR(B5="PFC002",B5="SAR326"),AA5/1.1*C5,AA5*C5)</f>
-        <v>0</v>
-      </c>
-      <c r="AF5" s="57">
-        <f>IF(I5,AA5/I5,0)</f>
+      <c r="AE5" s="78"/>
+      <c r="AF5" s="75">
+        <f>IF(OR(B5="PFC002",B5="SAR326"),AB5/1.1*C5,AB5*C5)</f>
         <v>0</v>
       </c>
       <c r="AG5" s="57">
-        <f>IF(D5,AA5/D5,0)</f>
+        <f>IF(J5,AB5/J5,0)</f>
         <v>0</v>
       </c>
       <c r="AH5" s="57">
-        <f>SUMPRODUCT(K5:N5,O5:R5)</f>
-        <v>0</v>
-      </c>
-      <c r="AI5" s="12"/>
-      <c r="AJ5" s="24">
-        <f>1-AI5</f>
+        <f>IF(D5,AB5/D5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI5" s="57">
+        <f>SUMPRODUCT(L5:O5,P5:S5)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="12"/>
+      <c r="AK5" s="24">
+        <f>1-AJ5</f>
         <v>1</v>
       </c>
-      <c r="AK5" s="77">
-        <f>AI5*K5+AJ5*L5</f>
-        <v>0</v>
-      </c>
-      <c r="AL5" s="67"/>
-      <c r="AM5" s="69">
-        <f>AK5*G5</f>
-        <v>0</v>
-      </c>
-      <c r="AN5" s="71">
-        <f>AK5*G5*AL5</f>
+      <c r="AL5" s="77">
+        <f>AJ5*L5+AK5*M5</f>
+        <v>0</v>
+      </c>
+      <c r="AM5" s="67"/>
+      <c r="AN5" s="69">
+        <f>AL5*D5</f>
+        <v>0</v>
+      </c>
+      <c r="AO5" s="69">
+        <f>AL5*G5</f>
+        <v>0</v>
+      </c>
+      <c r="AP5" s="69">
+        <f>AL5*H5</f>
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="71">
+        <f>AL5*J5*AM5</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A4:B4" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="A5:AN99999">
+  <conditionalFormatting sqref="A5:AQ99999">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$B5&lt;&gt;$B4</formula>
     </cfRule>
@@ -1548,7 +1609,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <ignoredErrors>
-    <ignoredError sqref="R5" formulaRange="1"/>
+    <ignoredError sqref="S5" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/app/templates/report/forecast.xlsx
+++ b/app/templates/report/forecast.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC9001C-FE82-4D4F-975D-0E542D9648D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A42874E-E95A-4C7D-866B-832AAB7F0F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
   <si>
     <t>Resource</t>
   </si>
@@ -194,6 +194,9 @@
   </si>
   <si>
     <t>MPR Potential</t>
+  </si>
+  <si>
+    <t>Reinvoices</t>
   </si>
 </sst>
 </file>
@@ -575,7 +578,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -671,28 +674,7 @@
     <xf numFmtId="6" fontId="2" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -705,9 +687,6 @@
     </xf>
     <xf numFmtId="9" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="2" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="6" fontId="3" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -723,12 +702,39 @@
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1130,13 +1136,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ5"/>
+  <dimension ref="A1:AR5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1149,15 +1155,15 @@
     <col min="12" max="15" width="9.140625" style="1" customWidth="1"/>
     <col min="16" max="23" width="8.85546875" style="1" customWidth="1"/>
     <col min="24" max="27" width="11.42578125" style="1" customWidth="1"/>
-    <col min="28" max="32" width="12.7109375" style="1" customWidth="1"/>
-    <col min="33" max="35" width="11.42578125" style="1" customWidth="1"/>
-    <col min="36" max="37" width="8.85546875" style="1" customWidth="1"/>
-    <col min="38" max="39" width="8.5703125" style="1" customWidth="1"/>
-    <col min="40" max="43" width="12.7109375" style="1" customWidth="1"/>
-    <col min="44" max="16384" width="14.42578125" style="1"/>
+    <col min="28" max="33" width="12.7109375" style="1" customWidth="1"/>
+    <col min="34" max="36" width="11.42578125" style="1" customWidth="1"/>
+    <col min="37" max="38" width="8.85546875" style="1" customWidth="1"/>
+    <col min="39" max="40" width="8.5703125" style="1" customWidth="1"/>
+    <col min="41" max="44" width="12.7109375" style="1" customWidth="1"/>
+    <col min="45" max="16384" width="14.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>15</v>
       </c>
@@ -1199,21 +1205,22 @@
       <c r="AD1" s="4"/>
       <c r="AE1" s="4"/>
       <c r="AF1" s="4"/>
-      <c r="AG1" s="5"/>
-      <c r="AH1" s="4"/>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="5"/>
       <c r="AI1" s="4"/>
-      <c r="AJ1" s="3" t="s">
+      <c r="AJ1" s="4"/>
+      <c r="AK1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AK1" s="4"/>
       <c r="AL1" s="4"/>
       <c r="AM1" s="4"/>
       <c r="AN1" s="4"/>
       <c r="AO1" s="4"/>
       <c r="AP1" s="4"/>
-      <c r="AQ1" s="5"/>
+      <c r="AQ1" s="4"/>
+      <c r="AR1" s="5"/>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>24</v>
       </c>
@@ -1262,28 +1269,29 @@
       <c r="AD2" s="7"/>
       <c r="AE2" s="7"/>
       <c r="AF2" s="7"/>
-      <c r="AG2" s="76" t="s">
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="AH2" s="7"/>
       <c r="AI2" s="7"/>
-      <c r="AJ2" s="6" t="s">
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="AK2" s="7"/>
-      <c r="AL2" s="7" t="s">
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="AM2" s="7"/>
       <c r="AN2" s="7"/>
       <c r="AO2" s="7"/>
       <c r="AP2" s="7"/>
-      <c r="AQ2" s="8"/>
+      <c r="AQ2" s="7"/>
+      <c r="AR2" s="8"/>
     </row>
-    <row r="3" spans="1:43" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:44" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28"/>
       <c r="B3" s="29"/>
-      <c r="C3" s="61"/>
+      <c r="C3" s="54"/>
       <c r="D3" s="30"/>
       <c r="E3" s="31"/>
       <c r="F3" s="31"/>
@@ -1306,215 +1314,222 @@
       <c r="W3" s="43">
         <v>1</v>
       </c>
-      <c r="X3" s="58">
+      <c r="X3" s="51">
         <f>SUM(X5:X1048576)</f>
         <v>0</v>
       </c>
-      <c r="Y3" s="58">
+      <c r="Y3" s="51">
         <f t="shared" ref="Y3:AA3" si="0">SUM(Y5:Y1048576)</f>
         <v>0</v>
       </c>
-      <c r="Z3" s="58">
+      <c r="Z3" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA3" s="59">
+      <c r="AA3" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB3" s="73">
+      <c r="AB3" s="65">
         <f t="shared" ref="AB3" si="1">SUM(AB5:AB1048576)</f>
         <v>0</v>
       </c>
-      <c r="AC3" s="73">
+      <c r="AC3" s="65">
         <f>SUM(AC5:AC1048576)</f>
         <v>0</v>
       </c>
-      <c r="AD3" s="73">
+      <c r="AD3" s="65">
         <f>SUM(AD5:AD1048576)</f>
         <v>0</v>
       </c>
-      <c r="AE3" s="73">
+      <c r="AE3" s="65">
         <f>SUM(AE5:AE1048576)</f>
         <v>0</v>
       </c>
-      <c r="AF3" s="60">
+      <c r="AF3" s="65">
         <f>SUM(AF5:AF1048576)</f>
         <v>0</v>
       </c>
-      <c r="AG3" s="58"/>
-      <c r="AH3" s="58"/>
-      <c r="AI3" s="58"/>
-      <c r="AJ3" s="38"/>
-      <c r="AK3" s="40"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="66"/>
-      <c r="AN3" s="68">
-        <f t="shared" ref="AN3:AQ3" si="2">SUM(AN5:AN1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="AO3" s="68">
+      <c r="AG3" s="53">
+        <f>SUM(AG5:AG1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="AH3" s="51"/>
+      <c r="AI3" s="51"/>
+      <c r="AJ3" s="51"/>
+      <c r="AK3" s="38"/>
+      <c r="AL3" s="40"/>
+      <c r="AM3" s="44"/>
+      <c r="AN3" s="58"/>
+      <c r="AO3" s="60">
+        <f t="shared" ref="AO3:AR3" si="2">SUM(AO5:AO1048576)</f>
+        <v>0</v>
+      </c>
+      <c r="AP3" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AP3" s="68">
+      <c r="AQ3" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AQ3" s="70">
+      <c r="AR3" s="62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:43" s="17" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="62" t="s">
+    <row r="4" spans="1:44" s="17" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="54" t="s">
+      <c r="B4" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="54" t="s">
+      <c r="E4" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="79" t="s">
+      <c r="F4" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="51" t="s">
+      <c r="G4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="81" t="s">
+      <c r="H4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="52" t="s">
+      <c r="I4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="50" t="s">
+      <c r="J4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="53" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="49" t="s">
+      <c r="L4" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="54" t="s">
+      <c r="M4" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="54" t="s">
+      <c r="N4" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="O4" s="55" t="s">
+      <c r="O4" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="52" t="s">
+      <c r="P4" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="Q4" s="51" t="s">
+      <c r="Q4" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="51" t="s">
+      <c r="R4" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="S4" s="53" t="s">
+      <c r="S4" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="T4" s="52" t="s">
+      <c r="T4" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="U4" s="51" t="s">
+      <c r="U4" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="V4" s="51" t="s">
+      <c r="V4" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="W4" s="55" t="s">
+      <c r="W4" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="X4" s="56" t="s">
+      <c r="X4" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="Y4" s="50" t="s">
+      <c r="Y4" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="Z4" s="50" t="s">
+      <c r="Z4" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="AA4" s="50" t="s">
+      <c r="AA4" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="AB4" s="56" t="s">
+      <c r="AB4" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="AC4" s="52" t="s">
+      <c r="AC4" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="AD4" s="52" t="s">
+      <c r="AD4" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="AE4" s="52" t="s">
+      <c r="AE4" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="AF4" s="65" t="s">
+      <c r="AF4" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG4" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="AG4" s="56" t="s">
+      <c r="AH4" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="AH4" s="50" t="s">
+      <c r="AI4" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="AI4" s="50" t="s">
+      <c r="AJ4" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="AJ4" s="52" t="s">
+      <c r="AK4" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="AK4" s="53" t="s">
+      <c r="AL4" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="AL4" s="56" t="s">
+      <c r="AM4" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="AM4" s="51" t="s">
+      <c r="AN4" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="AN4" s="56" t="s">
+      <c r="AO4" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="AO4" s="56" t="s">
+      <c r="AP4" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="AP4" s="56" t="s">
+      <c r="AQ4" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="AQ4" s="65" t="s">
+      <c r="AR4" s="82" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="26"/>
-      <c r="C5" s="63"/>
+      <c r="C5" s="56"/>
       <c r="D5" s="27"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="80"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="71"/>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
       <c r="I5" s="11"/>
       <c r="J5" s="2">
-        <f>I5*E5</f>
+        <f>IF(IFERROR(VALUE(I5),0),I5*E5,0)</f>
         <v>0</v>
       </c>
       <c r="K5" s="10">
-        <f>IF(D5&lt;&gt;0,J5/D5,0)</f>
+        <f t="shared" ref="K5" si="3">IF(E5&lt;&gt;0,J5/E5,0)</f>
         <v>0</v>
       </c>
       <c r="L5" s="46"/>
@@ -1532,76 +1547,77 @@
       <c r="U5" s="15"/>
       <c r="V5" s="15"/>
       <c r="W5" s="16"/>
-      <c r="X5" s="57">
+      <c r="X5" s="50">
         <f>(1-SUMPRODUCT($T$3:$W$3,$T5:$W5))*L5*$J5*P5</f>
         <v>0</v>
       </c>
-      <c r="Y5" s="57">
+      <c r="Y5" s="50">
         <f>(1-SUMPRODUCT($T$3:$W$3,$T5:$W5))*M5*$J5*Q5</f>
         <v>0</v>
       </c>
-      <c r="Z5" s="57">
+      <c r="Z5" s="50">
         <f>(1-SUMPRODUCT($T$3:$W$3,$T5:$W5))*N5*$J5*R5</f>
         <v>0</v>
       </c>
-      <c r="AA5" s="72">
+      <c r="AA5" s="64">
         <f>(1-SUMPRODUCT($T$3:$W$3,$T5:$W5))*O5*$J5*S5</f>
         <v>0</v>
       </c>
-      <c r="AB5" s="74">
+      <c r="AB5" s="66">
         <f>SUM(X5:AA5)</f>
         <v>0</v>
       </c>
-      <c r="AC5" s="78"/>
-      <c r="AD5" s="78"/>
-      <c r="AE5" s="78"/>
-      <c r="AF5" s="75">
+      <c r="AC5" s="70"/>
+      <c r="AD5" s="70"/>
+      <c r="AE5" s="70"/>
+      <c r="AF5" s="70"/>
+      <c r="AG5" s="67">
         <f>IF(OR(B5="PFC002",B5="SAR326"),AB5/1.1*C5,AB5*C5)</f>
         <v>0</v>
       </c>
-      <c r="AG5" s="57">
+      <c r="AH5" s="50">
         <f>IF(J5,AB5/J5,0)</f>
         <v>0</v>
       </c>
-      <c r="AH5" s="57">
+      <c r="AI5" s="50">
         <f>IF(D5,AB5/D5,0)</f>
         <v>0</v>
       </c>
-      <c r="AI5" s="57">
+      <c r="AJ5" s="50">
         <f>SUMPRODUCT(L5:O5,P5:S5)</f>
         <v>0</v>
       </c>
-      <c r="AJ5" s="12"/>
-      <c r="AK5" s="24">
-        <f>1-AJ5</f>
+      <c r="AK5" s="12"/>
+      <c r="AL5" s="24">
+        <f>1-AK5</f>
         <v>1</v>
       </c>
-      <c r="AL5" s="77">
-        <f>AJ5*L5+AK5*M5</f>
-        <v>0</v>
-      </c>
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="69">
-        <f>AL5*D5</f>
-        <v>0</v>
-      </c>
-      <c r="AO5" s="69">
-        <f>AL5*G5</f>
-        <v>0</v>
-      </c>
-      <c r="AP5" s="69">
-        <f>AL5*H5</f>
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="71">
-        <f>AL5*J5*AM5</f>
+      <c r="AM5" s="69">
+        <f>AK5*L5+AL5*M5</f>
+        <v>0</v>
+      </c>
+      <c r="AN5" s="59"/>
+      <c r="AO5" s="61">
+        <f>AM5*D5</f>
+        <v>0</v>
+      </c>
+      <c r="AP5" s="61">
+        <f>AM5*G5</f>
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="61">
+        <f>AM5*H5</f>
+        <v>0</v>
+      </c>
+      <c r="AR5" s="63">
+        <f>AM5*J5*AN5</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A4:B4" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="A5:AQ99999">
+  <conditionalFormatting sqref="A5:AR99999">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$B5&lt;&gt;$B4</formula>
     </cfRule>

--- a/app/templates/report/forecast.xlsx
+++ b/app/templates/report/forecast.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A42874E-E95A-4C7D-866B-832AAB7F0F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715FA6C1-09EF-437F-B7DB-D3D4D878127C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
   <si>
     <t>Resource</t>
   </si>
@@ -197,13 +197,25 @@
   </si>
   <si>
     <t>Reinvoices</t>
+  </si>
+  <si>
+    <t>Stabilised Convertible</t>
+  </si>
+  <si>
+    <t>Stabilised Potential</t>
+  </si>
+  <si>
+    <t>Sold beds</t>
+  </si>
+  <si>
+    <t>Stabilised Available</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="9">
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="164" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
     <numFmt numFmtId="165" formatCode="#,##0\ &quot;€&quot;"/>
@@ -211,6 +223,8 @@
     <numFmt numFmtId="167" formatCode="#,##0\ _€"/>
     <numFmt numFmtId="168" formatCode="mm/yyyy"/>
     <numFmt numFmtId="169" formatCode="#,##0.0"/>
+    <numFmt numFmtId="170" formatCode="#,##0.0\ &quot;€&quot;;[Red]\-#,##0.0\ &quot;€&quot;"/>
+    <numFmt numFmtId="171" formatCode="#,##0.0_ ;[Red]\-#,##0.0\ "/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -578,7 +592,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -666,9 +680,6 @@
     <xf numFmtId="9" fontId="2" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="6" fontId="2" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -678,9 +689,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="3" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -689,12 +697,9 @@
     <xf numFmtId="169" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="6" fontId="3" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -736,6 +741,32 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="2" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="2" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="2" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="2" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="6" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="171" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -1136,13 +1167,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR5"/>
+  <dimension ref="A1:AX5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1154,16 +1185,19 @@
     <col min="9" max="11" width="8.140625" style="1" customWidth="1"/>
     <col min="12" max="15" width="9.140625" style="1" customWidth="1"/>
     <col min="16" max="23" width="8.85546875" style="1" customWidth="1"/>
-    <col min="24" max="27" width="11.42578125" style="1" customWidth="1"/>
+    <col min="24" max="27" width="12.140625" style="1" customWidth="1"/>
     <col min="28" max="33" width="12.7109375" style="1" customWidth="1"/>
     <col min="34" max="36" width="11.42578125" style="1" customWidth="1"/>
     <col min="37" max="38" width="8.85546875" style="1" customWidth="1"/>
     <col min="39" max="40" width="8.5703125" style="1" customWidth="1"/>
-    <col min="41" max="44" width="12.7109375" style="1" customWidth="1"/>
-    <col min="45" max="16384" width="14.42578125" style="1"/>
+    <col min="41" max="46" width="13" style="1" customWidth="1"/>
+    <col min="47" max="47" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="8.7109375" style="89" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="4.140625" style="89" bestFit="1" customWidth="1"/>
+    <col min="50" max="16384" width="14.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>15</v>
       </c>
@@ -1218,9 +1252,13 @@
       <c r="AO1" s="4"/>
       <c r="AP1" s="4"/>
       <c r="AQ1" s="4"/>
-      <c r="AR1" s="5"/>
+      <c r="AR1" s="4"/>
+      <c r="AS1" s="4"/>
+      <c r="AT1" s="4"/>
+      <c r="AU1" s="5"/>
+      <c r="AV1" s="85"/>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>24</v>
       </c>
@@ -1270,7 +1308,7 @@
       <c r="AE2" s="7"/>
       <c r="AF2" s="7"/>
       <c r="AG2" s="7"/>
-      <c r="AH2" s="68" t="s">
+      <c r="AH2" s="59" t="s">
         <v>30</v>
       </c>
       <c r="AI2" s="7"/>
@@ -1286,19 +1324,41 @@
       <c r="AO2" s="7"/>
       <c r="AP2" s="7"/>
       <c r="AQ2" s="7"/>
-      <c r="AR2" s="8"/>
+      <c r="AR2" s="7"/>
+      <c r="AS2" s="7"/>
+      <c r="AT2" s="7"/>
+      <c r="AU2" s="8"/>
+      <c r="AV2" s="86"/>
     </row>
-    <row r="3" spans="1:44" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28"/>
       <c r="B3" s="29"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="30">
+        <f>SUBTOTAL(9,D5:D5)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="31">
+        <f>SUBTOTAL(9,E5:E5)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="31">
+        <f>SUBTOTAL(9,F5:F5)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="31">
+        <f>SUBTOTAL(9,G5:G5)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="31">
+        <f>SUBTOTAL(9,H5:H5)</f>
+        <v>0</v>
+      </c>
       <c r="I3" s="32"/>
-      <c r="J3" s="33"/>
+      <c r="J3" s="33">
+        <f>SUBTOTAL(9,J5:J5)</f>
+        <v>0</v>
+      </c>
       <c r="K3" s="34"/>
       <c r="L3" s="35"/>
       <c r="M3" s="36"/>
@@ -1308,219 +1368,249 @@
       <c r="Q3" s="39"/>
       <c r="R3" s="39"/>
       <c r="S3" s="40"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="43">
+      <c r="T3" s="74"/>
+      <c r="U3" s="75"/>
+      <c r="V3" s="75"/>
+      <c r="W3" s="76">
         <v>1</v>
       </c>
-      <c r="X3" s="51">
-        <f>SUM(X5:X1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="Y3" s="51">
-        <f t="shared" ref="Y3:AA3" si="0">SUM(Y5:Y1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="Z3" s="51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA3" s="52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB3" s="65">
-        <f t="shared" ref="AB3" si="1">SUM(AB5:AB1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="AC3" s="65">
-        <f>SUM(AC5:AC1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="AD3" s="65">
-        <f>SUM(AD5:AD1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="AE3" s="65">
-        <f>SUM(AE5:AE1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="AF3" s="65">
-        <f>SUM(AF5:AF1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="AG3" s="53">
-        <f>SUM(AG5:AG1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="AH3" s="51"/>
-      <c r="AI3" s="51"/>
-      <c r="AJ3" s="51"/>
+      <c r="X3" s="77">
+        <f>SUBTOTAL(9,X5:X5)</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="77">
+        <f>SUBTOTAL(9,Y5:Y5)</f>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="77">
+        <f>SUBTOTAL(9,Z5:Z5)</f>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="78">
+        <f>SUBTOTAL(9,AA5:AA5)</f>
+        <v>0</v>
+      </c>
+      <c r="AB3" s="79">
+        <f>SUBTOTAL(9,AB5:AB5)</f>
+        <v>0</v>
+      </c>
+      <c r="AC3" s="79">
+        <f>SUBTOTAL(9,AC5:AC5)</f>
+        <v>0</v>
+      </c>
+      <c r="AD3" s="79">
+        <f>SUBTOTAL(9,AD5:AD5)</f>
+        <v>0</v>
+      </c>
+      <c r="AE3" s="79">
+        <f>SUBTOTAL(9,AE5:AE5)</f>
+        <v>0</v>
+      </c>
+      <c r="AF3" s="79">
+        <f>SUBTOTAL(9,AF5:AF5)</f>
+        <v>0</v>
+      </c>
+      <c r="AG3" s="80">
+        <f>SUBTOTAL(9,AG5:AG5)</f>
+        <v>0</v>
+      </c>
+      <c r="AH3" s="47"/>
+      <c r="AI3" s="47"/>
+      <c r="AJ3" s="47"/>
       <c r="AK3" s="38"/>
       <c r="AL3" s="40"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="58"/>
-      <c r="AO3" s="60">
-        <f t="shared" ref="AO3:AR3" si="2">SUM(AO5:AO1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="AP3" s="60">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="60">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AR3" s="62">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="AM3" s="41"/>
+      <c r="AN3" s="52"/>
+      <c r="AO3" s="81">
+        <f>SUBTOTAL(9,AO5:AO5)</f>
+        <v>0</v>
+      </c>
+      <c r="AP3" s="81">
+        <f>SUBTOTAL(9,AP5:AP5)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="81">
+        <f>SUBTOTAL(9,AQ5:AQ5)</f>
+        <v>0</v>
+      </c>
+      <c r="AR3" s="81">
+        <f>SUBTOTAL(9,AR5:AR5)</f>
+        <v>0</v>
+      </c>
+      <c r="AS3" s="81">
+        <f>SUBTOTAL(9,AS5:AS5)</f>
+        <v>0</v>
+      </c>
+      <c r="AT3" s="81">
+        <f>SUBTOTAL(9,AT5:AT5)</f>
+        <v>0</v>
+      </c>
+      <c r="AU3" s="82">
+        <f>IF(AV3,AS3/AV3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AV3" s="83">
+        <f>SUBTOTAL(9,AV5:AV5)</f>
+        <v>0</v>
+      </c>
+      <c r="AW3" s="84"/>
     </row>
-    <row r="4" spans="1:44" s="17" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="55" t="s">
+    <row r="4" spans="1:50" s="17" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="72" t="s">
+      <c r="B4" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="73" t="s">
+      <c r="D4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="72" t="s">
+      <c r="E4" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="74" t="s">
+      <c r="F4" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="75" t="s">
+      <c r="G4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="76" t="s">
+      <c r="H4" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="77" t="s">
+      <c r="I4" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="78" t="s">
+      <c r="J4" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="73" t="s">
+      <c r="L4" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="72" t="s">
+      <c r="M4" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="O4" s="80" t="s">
+      <c r="O4" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="T4" s="77" t="s">
+      <c r="T4" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="W4" s="80" t="s">
+      <c r="W4" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="X4" s="81" t="s">
+      <c r="X4" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="Y4" s="78" t="s">
+      <c r="Y4" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="Z4" s="78" t="s">
+      <c r="Z4" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="AA4" s="78" t="s">
+      <c r="AA4" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="AB4" s="81" t="s">
+      <c r="AB4" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="AC4" s="77" t="s">
+      <c r="AC4" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="AD4" s="77" t="s">
+      <c r="AD4" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="AE4" s="77" t="s">
+      <c r="AE4" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="AF4" s="77" t="s">
+      <c r="AF4" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="AG4" s="82" t="s">
+      <c r="AG4" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="AH4" s="81" t="s">
+      <c r="AH4" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="AI4" s="78" t="s">
+      <c r="AI4" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="AJ4" s="78" t="s">
+      <c r="AJ4" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="AK4" s="77" t="s">
+      <c r="AK4" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="AL4" s="79" t="s">
+      <c r="AL4" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="AM4" s="81" t="s">
+      <c r="AM4" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="AN4" s="75" t="s">
+      <c r="AN4" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="AO4" s="81" t="s">
+      <c r="AO4" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="AP4" s="81" t="s">
+      <c r="AP4" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="AQ4" s="81" t="s">
+      <c r="AQ4" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="AR4" s="82" t="s">
-        <v>34</v>
-      </c>
+      <c r="AR4" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS4" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="AT4" s="72" t="s">
+        <v>48</v>
+      </c>
+      <c r="AU4" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV4" s="87" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW4" s="90"/>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="26"/>
-      <c r="C5" s="56"/>
+      <c r="C5" s="50"/>
       <c r="D5" s="27"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="71"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
       <c r="I5" s="11"/>
@@ -1529,13 +1619,13 @@
         <v>0</v>
       </c>
       <c r="K5" s="10">
-        <f t="shared" ref="K5" si="3">IF(E5&lt;&gt;0,J5/E5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="46"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="48"/>
+        <f t="shared" ref="K5" si="0">IF(E5&lt;&gt;0,J5/E5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="43"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="45"/>
       <c r="P5" s="12"/>
       <c r="Q5" s="13"/>
       <c r="R5" s="13"/>
@@ -1547,43 +1637,43 @@
       <c r="U5" s="15"/>
       <c r="V5" s="15"/>
       <c r="W5" s="16"/>
-      <c r="X5" s="50">
+      <c r="X5" s="47">
         <f>(1-SUMPRODUCT($T$3:$W$3,$T5:$W5))*L5*$J5*P5</f>
         <v>0</v>
       </c>
-      <c r="Y5" s="50">
+      <c r="Y5" s="47">
         <f>(1-SUMPRODUCT($T$3:$W$3,$T5:$W5))*M5*$J5*Q5</f>
         <v>0</v>
       </c>
-      <c r="Z5" s="50">
+      <c r="Z5" s="47">
         <f>(1-SUMPRODUCT($T$3:$W$3,$T5:$W5))*N5*$J5*R5</f>
         <v>0</v>
       </c>
-      <c r="AA5" s="64">
+      <c r="AA5" s="56">
         <f>(1-SUMPRODUCT($T$3:$W$3,$T5:$W5))*O5*$J5*S5</f>
         <v>0</v>
       </c>
-      <c r="AB5" s="66">
+      <c r="AB5" s="57">
         <f>SUM(X5:AA5)</f>
         <v>0</v>
       </c>
-      <c r="AC5" s="70"/>
-      <c r="AD5" s="70"/>
-      <c r="AE5" s="70"/>
-      <c r="AF5" s="70"/>
-      <c r="AG5" s="67">
+      <c r="AC5" s="61"/>
+      <c r="AD5" s="61"/>
+      <c r="AE5" s="61"/>
+      <c r="AF5" s="61"/>
+      <c r="AG5" s="58">
         <f>IF(OR(B5="PFC002",B5="SAR326"),AB5/1.1*C5,AB5*C5)</f>
         <v>0</v>
       </c>
-      <c r="AH5" s="50">
+      <c r="AH5" s="47">
         <f>IF(J5,AB5/J5,0)</f>
         <v>0</v>
       </c>
-      <c r="AI5" s="50">
+      <c r="AI5" s="47">
         <f>IF(D5,AB5/D5,0)</f>
         <v>0</v>
       </c>
-      <c r="AJ5" s="50">
+      <c r="AJ5" s="47">
         <f>SUMPRODUCT(L5:O5,P5:S5)</f>
         <v>0</v>
       </c>
@@ -1592,32 +1682,49 @@
         <f>1-AK5</f>
         <v>1</v>
       </c>
-      <c r="AM5" s="69">
+      <c r="AM5" s="60">
         <f>AK5*L5+AL5*M5</f>
         <v>0</v>
       </c>
-      <c r="AN5" s="59"/>
-      <c r="AO5" s="61">
+      <c r="AN5" s="53"/>
+      <c r="AO5" s="54">
         <f>AM5*D5</f>
         <v>0</v>
       </c>
-      <c r="AP5" s="61">
+      <c r="AP5" s="54">
         <f>AM5*G5</f>
         <v>0</v>
       </c>
-      <c r="AQ5" s="61">
+      <c r="AQ5" s="54">
         <f>AM5*H5</f>
         <v>0</v>
       </c>
-      <c r="AR5" s="63">
-        <f>AM5*J5*AN5</f>
-        <v>0</v>
-      </c>
+      <c r="AR5" s="54">
+        <f>AO5*AN5</f>
+        <v>0</v>
+      </c>
+      <c r="AS5" s="54">
+        <f>AP5*AN5</f>
+        <v>0</v>
+      </c>
+      <c r="AT5" s="54">
+        <f>AQ5*AN5</f>
+        <v>0</v>
+      </c>
+      <c r="AU5" s="55">
+        <f>IF(AV5,AS5/AV5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AV5" s="88">
+        <f>G5*AN5</f>
+        <v>0</v>
+      </c>
+      <c r="AX5" s="91"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:B4" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="A5:AR99999">
+  <conditionalFormatting sqref="A5:AV5">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$B5&lt;&gt;$B4</formula>
     </cfRule>

--- a/app/templates/report/forecast.xlsx
+++ b/app/templates/report/forecast.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715FA6C1-09EF-437F-B7DB-D3D4D878127C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D50562-B172-40BF-B052-FAFDBDF05E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
   <si>
     <t>Resource</t>
   </si>
@@ -64,10 +64,6 @@
   </si>
   <si>
     <t>Av.
-Beds</t>
-  </si>
-  <si>
-    <t>Cons.
 Beds</t>
   </si>
   <si>
@@ -1199,7 +1195,7 @@
   <sheetData>
     <row r="1" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="9" t="e">
         <f>YEAR(A5)</f>
@@ -1214,7 +1210,7 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
@@ -1244,7 +1240,7 @@
       <c r="AI1" s="4"/>
       <c r="AJ1" s="4"/>
       <c r="AK1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL1" s="4"/>
       <c r="AM1" s="4"/>
@@ -1260,16 +1256,16 @@
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -1281,7 +1277,7 @@
       <c r="J2" s="7"/>
       <c r="K2" s="8"/>
       <c r="L2" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
@@ -1291,13 +1287,13 @@
       <c r="R2" s="7"/>
       <c r="S2" s="8"/>
       <c r="T2" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
       <c r="W2" s="8"/>
       <c r="X2" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y2" s="20"/>
       <c r="Z2" s="20"/>
@@ -1309,16 +1305,16 @@
       <c r="AF2" s="7"/>
       <c r="AG2" s="7"/>
       <c r="AH2" s="59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI2" s="7"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL2" s="7"/>
       <c r="AM2" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN2" s="7"/>
       <c r="AO2" s="7"/>
@@ -1335,28 +1331,25 @@
       <c r="B3" s="29"/>
       <c r="C3" s="48"/>
       <c r="D3" s="30">
-        <f>SUBTOTAL(9,D5:D5)</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="31">
-        <f>SUBTOTAL(9,E5:E5)</f>
-        <v>0</v>
-      </c>
+        <f>SUBTOTAL(9,D5:D99999)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="31"/>
       <c r="F3" s="31">
-        <f>SUBTOTAL(9,F5:F5)</f>
+        <f t="shared" ref="E3:H3" si="0">SUBTOTAL(9,F5:F99999)</f>
         <v>0</v>
       </c>
       <c r="G3" s="31">
-        <f>SUBTOTAL(9,G5:G5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H3" s="31">
-        <f>SUBTOTAL(9,H5:H5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I3" s="32"/>
       <c r="J3" s="33">
-        <f>SUBTOTAL(9,J5:J5)</f>
+        <f>SUBTOTAL(9,J5:J99999)</f>
         <v>0</v>
       </c>
       <c r="K3" s="34"/>
@@ -1375,43 +1368,43 @@
         <v>1</v>
       </c>
       <c r="X3" s="77">
-        <f>SUBTOTAL(9,X5:X5)</f>
+        <f>SUBTOTAL(9,X5:X99999)</f>
         <v>0</v>
       </c>
       <c r="Y3" s="77">
-        <f>SUBTOTAL(9,Y5:Y5)</f>
+        <f>SUBTOTAL(9,Y5:Y99999)</f>
         <v>0</v>
       </c>
       <c r="Z3" s="77">
-        <f>SUBTOTAL(9,Z5:Z5)</f>
+        <f>SUBTOTAL(9,Z5:Z99999)</f>
         <v>0</v>
       </c>
       <c r="AA3" s="78">
-        <f>SUBTOTAL(9,AA5:AA5)</f>
+        <f>SUBTOTAL(9,AA5:AA99999)</f>
         <v>0</v>
       </c>
       <c r="AB3" s="79">
-        <f>SUBTOTAL(9,AB5:AB5)</f>
+        <f>SUBTOTAL(9,AB5:AB99999)</f>
         <v>0</v>
       </c>
       <c r="AC3" s="79">
-        <f>SUBTOTAL(9,AC5:AC5)</f>
+        <f>SUBTOTAL(9,AC5:AC99999)</f>
         <v>0</v>
       </c>
       <c r="AD3" s="79">
-        <f>SUBTOTAL(9,AD5:AD5)</f>
+        <f>SUBTOTAL(9,AD5:AD99999)</f>
         <v>0</v>
       </c>
       <c r="AE3" s="79">
-        <f>SUBTOTAL(9,AE5:AE5)</f>
+        <f>SUBTOTAL(9,AE5:AE99999)</f>
         <v>0</v>
       </c>
       <c r="AF3" s="79">
-        <f>SUBTOTAL(9,AF5:AF5)</f>
+        <f>SUBTOTAL(9,AF5:AF99999)</f>
         <v>0</v>
       </c>
       <c r="AG3" s="80">
-        <f>SUBTOTAL(9,AG5:AG5)</f>
+        <f>SUBTOTAL(9,AG5:AG99999)</f>
         <v>0</v>
       </c>
       <c r="AH3" s="47"/>
@@ -1422,72 +1415,70 @@
       <c r="AM3" s="41"/>
       <c r="AN3" s="52"/>
       <c r="AO3" s="81">
-        <f>SUBTOTAL(9,AO5:AO5)</f>
+        <f>SUBTOTAL(9,AO5:AO99999)</f>
         <v>0</v>
       </c>
       <c r="AP3" s="81">
-        <f>SUBTOTAL(9,AP5:AP5)</f>
+        <f>SUBTOTAL(9,AP5:AP99999)</f>
         <v>0</v>
       </c>
       <c r="AQ3" s="81">
-        <f>SUBTOTAL(9,AQ5:AQ5)</f>
+        <f>SUBTOTAL(9,AQ5:AQ99999)</f>
         <v>0</v>
       </c>
       <c r="AR3" s="81">
-        <f>SUBTOTAL(9,AR5:AR5)</f>
+        <f>SUBTOTAL(9,AR5:AR99999)</f>
         <v>0</v>
       </c>
       <c r="AS3" s="81">
-        <f>SUBTOTAL(9,AS5:AS5)</f>
+        <f>SUBTOTAL(9,AS5:AS99999)</f>
         <v>0</v>
       </c>
       <c r="AT3" s="81">
-        <f>SUBTOTAL(9,AT5:AT5)</f>
+        <f>SUBTOTAL(9,AT5:AT99999)</f>
         <v>0</v>
       </c>
       <c r="AU3" s="82">
-        <f>IF(AV3,AS3/AV3,0)</f>
+        <f>SUBTOTAL(9,AU5:AU99999)</f>
         <v>0</v>
       </c>
       <c r="AV3" s="83">
-        <f>SUBTOTAL(9,AV5:AV5)</f>
+        <f>SUBTOTAL(9,AV5:AV99999)</f>
         <v>0</v>
       </c>
       <c r="AW3" s="84"/>
     </row>
     <row r="4" spans="1:50" s="17" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="46" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="63" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="63" t="s">
+      <c r="E4" s="63"/>
+      <c r="F4" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="68" t="s">
         <v>9</v>
-      </c>
-      <c r="F4" s="65" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="67" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="68" t="s">
-        <v>10</v>
       </c>
       <c r="J4" s="69" t="s">
         <v>7</v>
       </c>
       <c r="K4" s="70" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L4" s="64" t="s">
         <v>1</v>
@@ -1502,28 +1493,28 @@
         <v>4</v>
       </c>
       <c r="P4" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="R4" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="S4" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="S4" s="70" t="s">
-        <v>21</v>
-      </c>
       <c r="T4" s="68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U4" s="66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V4" s="66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W4" s="71" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X4" s="72" t="s">
         <v>1</v>
@@ -1538,73 +1529,73 @@
         <v>4</v>
       </c>
       <c r="AB4" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC4" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="AC4" s="68" t="s">
+      <c r="AD4" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE4" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="AD4" s="68" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE4" s="68" t="s">
-        <v>36</v>
-      </c>
       <c r="AF4" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG4" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH4" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI4" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ4" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK4" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL4" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM4" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN4" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO4" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP4" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ4" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="AR4" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS4" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="AG4" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH4" s="72" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI4" s="69" t="s">
-        <v>32</v>
-      </c>
-      <c r="AJ4" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK4" s="68" t="s">
-        <v>18</v>
-      </c>
-      <c r="AL4" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="AM4" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="AN4" s="66" t="s">
-        <v>23</v>
-      </c>
-      <c r="AO4" s="72" t="s">
-        <v>43</v>
-      </c>
-      <c r="AP4" s="72" t="s">
-        <v>44</v>
-      </c>
-      <c r="AQ4" s="72" t="s">
-        <v>45</v>
-      </c>
-      <c r="AR4" s="72" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS4" s="72" t="s">
+      <c r="AT4" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="AT4" s="72" t="s">
+      <c r="AU4" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="AV4" s="87" t="s">
         <v>48</v>
-      </c>
-      <c r="AU4" s="73" t="s">
-        <v>31</v>
-      </c>
-      <c r="AV4" s="87" t="s">
-        <v>49</v>
       </c>
       <c r="AW4" s="90"/>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="26"/>
       <c r="C5" s="50"/>
@@ -1615,11 +1606,11 @@
       <c r="H5" s="18"/>
       <c r="I5" s="11"/>
       <c r="J5" s="2">
-        <f>IF(IFERROR(VALUE(I5),0),I5*E5,0)</f>
+        <f>IF(IFERROR(VALUE(I5),0),I5*D5,0)</f>
         <v>0</v>
       </c>
       <c r="K5" s="10">
-        <f t="shared" ref="K5" si="0">IF(E5&lt;&gt;0,J5/E5,0)</f>
+        <f>IF(D5&lt;&gt;0,J5/D5,0)</f>
         <v>0</v>
       </c>
       <c r="L5" s="43"/>
